--- a/03_DB・機能設計書/1班_データモデル設計書(ver1.3).xlsx
+++ b/03_DB・機能設計書/1班_データモデル設計書(ver1.3).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maron\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D289E78-40F4-4550-9EB4-CF95EDF084AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB406D7A-BB87-44EF-95A0-0C16B1C830CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1104,10 +1104,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>INT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>categorie_code</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1143,6 +1139,10 @@
     <rPh sb="7" eb="9">
       <t>シュウセイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INT(3)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2709,6 +2709,57 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="66" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2757,19 +2808,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2790,51 +2829,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="66" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2865,6 +2859,78 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2874,13 +2940,19 @@
     <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2889,18 +2961,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2913,66 +2973,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2985,34 +2985,76 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="30" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3024,13 +3066,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3041,48 +3083,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -4475,21 +4475,21 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
-      <c r="U3" s="143" t="s">
+      <c r="U3" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="144"/>
-      <c r="W3" s="145" t="s">
+      <c r="V3" s="129"/>
+      <c r="W3" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="146"/>
-      <c r="Y3" s="146"/>
-      <c r="Z3" s="146"/>
-      <c r="AA3" s="146"/>
-      <c r="AB3" s="146"/>
-      <c r="AC3" s="146"/>
-      <c r="AD3" s="146"/>
-      <c r="AE3" s="147"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="135"/>
       <c r="AF3" s="12"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -4601,20 +4601,20 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
-      <c r="F7" s="128" t="s">
+      <c r="F7" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="129"/>
-      <c r="P7" s="129"/>
-      <c r="Q7" s="130"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="146"/>
+      <c r="N7" s="146"/>
+      <c r="O7" s="146"/>
+      <c r="P7" s="146"/>
+      <c r="Q7" s="147"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
@@ -4632,82 +4632,82 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="137" t="s">
+      <c r="C8" s="149"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="138"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="138"/>
-      <c r="M8" s="138"/>
-      <c r="N8" s="138"/>
-      <c r="O8" s="138"/>
-      <c r="P8" s="138"/>
-      <c r="Q8" s="139"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="155"/>
+      <c r="L8" s="155"/>
+      <c r="M8" s="155"/>
+      <c r="N8" s="155"/>
+      <c r="O8" s="155"/>
+      <c r="P8" s="155"/>
+      <c r="Q8" s="156"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="127" t="s">
+      <c r="W8" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="X8" s="127"/>
-      <c r="Y8" s="127"/>
-      <c r="Z8" s="127" t="s">
+      <c r="X8" s="144"/>
+      <c r="Y8" s="144"/>
+      <c r="Z8" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="AA8" s="127"/>
-      <c r="AB8" s="127"/>
-      <c r="AC8" s="127" t="s">
+      <c r="AA8" s="144"/>
+      <c r="AB8" s="144"/>
+      <c r="AC8" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="AD8" s="127"/>
-      <c r="AE8" s="127"/>
+      <c r="AD8" s="144"/>
+      <c r="AE8" s="144"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="141"/>
-      <c r="M9" s="141"/>
-      <c r="N9" s="141"/>
-      <c r="O9" s="141"/>
-      <c r="P9" s="141"/>
-      <c r="Q9" s="142"/>
+      <c r="B9" s="151"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="158"/>
+      <c r="L9" s="158"/>
+      <c r="M9" s="158"/>
+      <c r="N9" s="158"/>
+      <c r="O9" s="158"/>
+      <c r="P9" s="158"/>
+      <c r="Q9" s="159"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
-      <c r="W9" s="148"/>
-      <c r="X9" s="149"/>
-      <c r="Y9" s="150"/>
-      <c r="Z9" s="148"/>
-      <c r="AA9" s="149"/>
-      <c r="AB9" s="150"/>
-      <c r="AC9" s="148" t="s">
+      <c r="W9" s="161"/>
+      <c r="X9" s="162"/>
+      <c r="Y9" s="163"/>
+      <c r="Z9" s="161"/>
+      <c r="AA9" s="162"/>
+      <c r="AB9" s="163"/>
+      <c r="AC9" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="AD9" s="149"/>
-      <c r="AE9" s="150"/>
+      <c r="AD9" s="162"/>
+      <c r="AE9" s="163"/>
       <c r="AF9" s="12"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -4733,15 +4733,15 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
-      <c r="W10" s="151"/>
-      <c r="X10" s="152"/>
-      <c r="Y10" s="153"/>
-      <c r="Z10" s="151"/>
-      <c r="AA10" s="152"/>
-      <c r="AB10" s="153"/>
-      <c r="AC10" s="151"/>
-      <c r="AD10" s="152"/>
-      <c r="AE10" s="153"/>
+      <c r="W10" s="164"/>
+      <c r="X10" s="165"/>
+      <c r="Y10" s="166"/>
+      <c r="Z10" s="164"/>
+      <c r="AA10" s="165"/>
+      <c r="AB10" s="166"/>
+      <c r="AC10" s="164"/>
+      <c r="AD10" s="165"/>
+      <c r="AE10" s="166"/>
       <c r="AF10" s="12"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -4767,15 +4767,15 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="151"/>
-      <c r="X11" s="152"/>
-      <c r="Y11" s="153"/>
-      <c r="Z11" s="151"/>
-      <c r="AA11" s="152"/>
-      <c r="AB11" s="153"/>
-      <c r="AC11" s="151"/>
-      <c r="AD11" s="152"/>
-      <c r="AE11" s="153"/>
+      <c r="W11" s="164"/>
+      <c r="X11" s="165"/>
+      <c r="Y11" s="166"/>
+      <c r="Z11" s="164"/>
+      <c r="AA11" s="165"/>
+      <c r="AB11" s="166"/>
+      <c r="AC11" s="164"/>
+      <c r="AD11" s="165"/>
+      <c r="AE11" s="166"/>
       <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -4801,15 +4801,15 @@
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
-      <c r="W12" s="154"/>
-      <c r="X12" s="155"/>
-      <c r="Y12" s="156"/>
-      <c r="Z12" s="154"/>
-      <c r="AA12" s="155"/>
-      <c r="AB12" s="156"/>
-      <c r="AC12" s="154"/>
-      <c r="AD12" s="155"/>
-      <c r="AE12" s="156"/>
+      <c r="W12" s="139"/>
+      <c r="X12" s="140"/>
+      <c r="Y12" s="141"/>
+      <c r="Z12" s="139"/>
+      <c r="AA12" s="140"/>
+      <c r="AB12" s="141"/>
+      <c r="AC12" s="139"/>
+      <c r="AD12" s="140"/>
+      <c r="AE12" s="141"/>
       <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -4904,106 +4904,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="157" t="s">
+      <c r="B16" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
-      <c r="M16" s="157"/>
-      <c r="N16" s="157"/>
-      <c r="O16" s="157"/>
-      <c r="P16" s="157"/>
-      <c r="Q16" s="157"/>
-      <c r="R16" s="157"/>
-      <c r="S16" s="157"/>
-      <c r="T16" s="157"/>
-      <c r="U16" s="157"/>
-      <c r="V16" s="157"/>
-      <c r="W16" s="157"/>
-      <c r="X16" s="157"/>
-      <c r="Y16" s="157"/>
-      <c r="Z16" s="157"/>
-      <c r="AA16" s="157"/>
-      <c r="AB16" s="157"/>
-      <c r="AC16" s="157"/>
-      <c r="AD16" s="157"/>
-      <c r="AE16" s="157"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="143"/>
+      <c r="K16" s="143"/>
+      <c r="L16" s="143"/>
+      <c r="M16" s="143"/>
+      <c r="N16" s="143"/>
+      <c r="O16" s="143"/>
+      <c r="P16" s="143"/>
+      <c r="Q16" s="143"/>
+      <c r="R16" s="143"/>
+      <c r="S16" s="143"/>
+      <c r="T16" s="143"/>
+      <c r="U16" s="143"/>
+      <c r="V16" s="143"/>
+      <c r="W16" s="143"/>
+      <c r="X16" s="143"/>
+      <c r="Y16" s="143"/>
+      <c r="Z16" s="143"/>
+      <c r="AA16" s="143"/>
+      <c r="AB16" s="143"/>
+      <c r="AC16" s="143"/>
+      <c r="AD16" s="143"/>
+      <c r="AE16" s="143"/>
       <c r="AF16" s="12"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="157"/>
-      <c r="C17" s="157"/>
-      <c r="D17" s="157"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="157"/>
-      <c r="K17" s="157"/>
-      <c r="L17" s="157"/>
-      <c r="M17" s="157"/>
-      <c r="N17" s="157"/>
-      <c r="O17" s="157"/>
-      <c r="P17" s="157"/>
-      <c r="Q17" s="157"/>
-      <c r="R17" s="157"/>
-      <c r="S17" s="157"/>
-      <c r="T17" s="157"/>
-      <c r="U17" s="157"/>
-      <c r="V17" s="157"/>
-      <c r="W17" s="157"/>
-      <c r="X17" s="157"/>
-      <c r="Y17" s="157"/>
-      <c r="Z17" s="157"/>
-      <c r="AA17" s="157"/>
-      <c r="AB17" s="157"/>
-      <c r="AC17" s="157"/>
-      <c r="AD17" s="157"/>
-      <c r="AE17" s="157"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="143"/>
+      <c r="N17" s="143"/>
+      <c r="O17" s="143"/>
+      <c r="P17" s="143"/>
+      <c r="Q17" s="143"/>
+      <c r="R17" s="143"/>
+      <c r="S17" s="143"/>
+      <c r="T17" s="143"/>
+      <c r="U17" s="143"/>
+      <c r="V17" s="143"/>
+      <c r="W17" s="143"/>
+      <c r="X17" s="143"/>
+      <c r="Y17" s="143"/>
+      <c r="Z17" s="143"/>
+      <c r="AA17" s="143"/>
+      <c r="AB17" s="143"/>
+      <c r="AC17" s="143"/>
+      <c r="AD17" s="143"/>
+      <c r="AE17" s="143"/>
       <c r="AF17" s="12"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="157"/>
-      <c r="C18" s="157"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="157"/>
-      <c r="L18" s="157"/>
-      <c r="M18" s="157"/>
-      <c r="N18" s="157"/>
-      <c r="O18" s="157"/>
-      <c r="P18" s="157"/>
-      <c r="Q18" s="157"/>
-      <c r="R18" s="157"/>
-      <c r="S18" s="157"/>
-      <c r="T18" s="157"/>
-      <c r="U18" s="157"/>
-      <c r="V18" s="157"/>
-      <c r="W18" s="157"/>
-      <c r="X18" s="157"/>
-      <c r="Y18" s="157"/>
-      <c r="Z18" s="157"/>
-      <c r="AA18" s="157"/>
-      <c r="AB18" s="157"/>
-      <c r="AC18" s="157"/>
-      <c r="AD18" s="157"/>
-      <c r="AE18" s="157"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="143"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="143"/>
+      <c r="N18" s="143"/>
+      <c r="O18" s="143"/>
+      <c r="P18" s="143"/>
+      <c r="Q18" s="143"/>
+      <c r="R18" s="143"/>
+      <c r="S18" s="143"/>
+      <c r="T18" s="143"/>
+      <c r="U18" s="143"/>
+      <c r="V18" s="143"/>
+      <c r="W18" s="143"/>
+      <c r="X18" s="143"/>
+      <c r="Y18" s="143"/>
+      <c r="Z18" s="143"/>
+      <c r="AA18" s="143"/>
+      <c r="AB18" s="143"/>
+      <c r="AC18" s="143"/>
+      <c r="AD18" s="143"/>
+      <c r="AE18" s="143"/>
       <c r="AF18" s="12"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -5142,416 +5142,416 @@
     </row>
     <row r="23" spans="1:32" s="39" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="37"/>
-      <c r="B23" s="143" t="s">
+      <c r="B23" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="158"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="143" t="s">
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="144"/>
-      <c r="J23" s="143" t="s">
+      <c r="G23" s="128"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="129"/>
+      <c r="J23" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="158"/>
-      <c r="L23" s="158"/>
-      <c r="M23" s="158"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="158"/>
-      <c r="P23" s="158"/>
-      <c r="Q23" s="158"/>
-      <c r="R23" s="158"/>
-      <c r="S23" s="158"/>
-      <c r="T23" s="158"/>
-      <c r="U23" s="158"/>
-      <c r="V23" s="158"/>
-      <c r="W23" s="158"/>
-      <c r="X23" s="158"/>
-      <c r="Y23" s="158"/>
-      <c r="Z23" s="158"/>
-      <c r="AA23" s="158"/>
-      <c r="AB23" s="144"/>
-      <c r="AC23" s="143" t="s">
+      <c r="K23" s="128"/>
+      <c r="L23" s="128"/>
+      <c r="M23" s="128"/>
+      <c r="N23" s="128"/>
+      <c r="O23" s="128"/>
+      <c r="P23" s="128"/>
+      <c r="Q23" s="128"/>
+      <c r="R23" s="128"/>
+      <c r="S23" s="128"/>
+      <c r="T23" s="128"/>
+      <c r="U23" s="128"/>
+      <c r="V23" s="128"/>
+      <c r="W23" s="128"/>
+      <c r="X23" s="128"/>
+      <c r="Y23" s="128"/>
+      <c r="Z23" s="128"/>
+      <c r="AA23" s="128"/>
+      <c r="AB23" s="129"/>
+      <c r="AC23" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="AD23" s="158"/>
-      <c r="AE23" s="144"/>
+      <c r="AD23" s="128"/>
+      <c r="AE23" s="129"/>
       <c r="AF23" s="37"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="143" t="s">
+      <c r="B24" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="158"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="159" t="s">
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="142" t="s">
         <v>159</v>
       </c>
-      <c r="G24" s="160"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="143" t="s">
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="158"/>
-      <c r="L24" s="158"/>
-      <c r="M24" s="158"/>
-      <c r="N24" s="158"/>
-      <c r="O24" s="158"/>
-      <c r="P24" s="158"/>
-      <c r="Q24" s="158"/>
-      <c r="R24" s="158"/>
-      <c r="S24" s="158"/>
-      <c r="T24" s="158"/>
-      <c r="U24" s="158"/>
-      <c r="V24" s="158"/>
-      <c r="W24" s="158"/>
-      <c r="X24" s="158"/>
-      <c r="Y24" s="158"/>
-      <c r="Z24" s="158"/>
-      <c r="AA24" s="158"/>
-      <c r="AB24" s="144"/>
-      <c r="AC24" s="162" t="s">
+      <c r="K24" s="128"/>
+      <c r="L24" s="128"/>
+      <c r="M24" s="128"/>
+      <c r="N24" s="128"/>
+      <c r="O24" s="128"/>
+      <c r="P24" s="128"/>
+      <c r="Q24" s="128"/>
+      <c r="R24" s="128"/>
+      <c r="S24" s="128"/>
+      <c r="T24" s="128"/>
+      <c r="U24" s="128"/>
+      <c r="V24" s="128"/>
+      <c r="W24" s="128"/>
+      <c r="X24" s="128"/>
+      <c r="Y24" s="128"/>
+      <c r="Z24" s="128"/>
+      <c r="AA24" s="128"/>
+      <c r="AB24" s="129"/>
+      <c r="AC24" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AD24" s="163"/>
-      <c r="AE24" s="164"/>
+      <c r="AD24" s="137"/>
+      <c r="AE24" s="138"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="143" t="s">
+      <c r="B25" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="158"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="144"/>
-      <c r="F25" s="165">
+      <c r="C25" s="128"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="130">
         <v>45063</v>
       </c>
-      <c r="G25" s="160"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="143" t="s">
+      <c r="G25" s="131"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="K25" s="158"/>
-      <c r="L25" s="158"/>
-      <c r="M25" s="158"/>
-      <c r="N25" s="158"/>
-      <c r="O25" s="158"/>
-      <c r="P25" s="158"/>
-      <c r="Q25" s="158"/>
-      <c r="R25" s="158"/>
-      <c r="S25" s="158"/>
-      <c r="T25" s="158"/>
-      <c r="U25" s="158"/>
-      <c r="V25" s="158"/>
-      <c r="W25" s="158"/>
-      <c r="X25" s="158"/>
-      <c r="Y25" s="158"/>
-      <c r="Z25" s="158"/>
-      <c r="AA25" s="158"/>
-      <c r="AB25" s="144"/>
-      <c r="AC25" s="154" t="s">
+      <c r="K25" s="128"/>
+      <c r="L25" s="128"/>
+      <c r="M25" s="128"/>
+      <c r="N25" s="128"/>
+      <c r="O25" s="128"/>
+      <c r="P25" s="128"/>
+      <c r="Q25" s="128"/>
+      <c r="R25" s="128"/>
+      <c r="S25" s="128"/>
+      <c r="T25" s="128"/>
+      <c r="U25" s="128"/>
+      <c r="V25" s="128"/>
+      <c r="W25" s="128"/>
+      <c r="X25" s="128"/>
+      <c r="Y25" s="128"/>
+      <c r="Z25" s="128"/>
+      <c r="AA25" s="128"/>
+      <c r="AB25" s="129"/>
+      <c r="AC25" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="AD25" s="155"/>
-      <c r="AE25" s="156"/>
+      <c r="AD25" s="140"/>
+      <c r="AE25" s="141"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="143" t="s">
+      <c r="B26" s="127" t="s">
         <v>158</v>
       </c>
-      <c r="C26" s="158"/>
-      <c r="D26" s="158"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="165">
+      <c r="C26" s="128"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="130">
         <v>45065</v>
       </c>
-      <c r="G26" s="160"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="143" t="s">
+      <c r="G26" s="131"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="127" t="s">
         <v>185</v>
       </c>
-      <c r="K26" s="158"/>
-      <c r="L26" s="158"/>
-      <c r="M26" s="158"/>
-      <c r="N26" s="158"/>
-      <c r="O26" s="158"/>
-      <c r="P26" s="158"/>
-      <c r="Q26" s="158"/>
-      <c r="R26" s="158"/>
-      <c r="S26" s="158"/>
-      <c r="T26" s="158"/>
-      <c r="U26" s="158"/>
-      <c r="V26" s="158"/>
-      <c r="W26" s="158"/>
-      <c r="X26" s="158"/>
-      <c r="Y26" s="158"/>
-      <c r="Z26" s="158"/>
-      <c r="AA26" s="158"/>
-      <c r="AB26" s="144"/>
-      <c r="AC26" s="162" t="s">
+      <c r="K26" s="128"/>
+      <c r="L26" s="128"/>
+      <c r="M26" s="128"/>
+      <c r="N26" s="128"/>
+      <c r="O26" s="128"/>
+      <c r="P26" s="128"/>
+      <c r="Q26" s="128"/>
+      <c r="R26" s="128"/>
+      <c r="S26" s="128"/>
+      <c r="T26" s="128"/>
+      <c r="U26" s="128"/>
+      <c r="V26" s="128"/>
+      <c r="W26" s="128"/>
+      <c r="X26" s="128"/>
+      <c r="Y26" s="128"/>
+      <c r="Z26" s="128"/>
+      <c r="AA26" s="128"/>
+      <c r="AB26" s="129"/>
+      <c r="AC26" s="136" t="s">
         <v>160</v>
       </c>
-      <c r="AD26" s="163"/>
-      <c r="AE26" s="164"/>
+      <c r="AD26" s="137"/>
+      <c r="AE26" s="138"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="143" t="s">
+      <c r="B27" s="127" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" s="128"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="130">
+        <v>45100</v>
+      </c>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="127" t="s">
         <v>198</v>
       </c>
-      <c r="C27" s="158"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="165">
-        <v>45100</v>
-      </c>
-      <c r="G27" s="160"/>
-      <c r="H27" s="160"/>
-      <c r="I27" s="161"/>
-      <c r="J27" s="143" t="s">
-        <v>199</v>
-      </c>
-      <c r="K27" s="158"/>
-      <c r="L27" s="158"/>
-      <c r="M27" s="158"/>
-      <c r="N27" s="158"/>
-      <c r="O27" s="158"/>
-      <c r="P27" s="158"/>
-      <c r="Q27" s="158"/>
-      <c r="R27" s="158"/>
-      <c r="S27" s="158"/>
-      <c r="T27" s="158"/>
-      <c r="U27" s="158"/>
-      <c r="V27" s="158"/>
-      <c r="W27" s="158"/>
-      <c r="X27" s="158"/>
-      <c r="Y27" s="158"/>
-      <c r="Z27" s="158"/>
-      <c r="AA27" s="158"/>
-      <c r="AB27" s="144"/>
-      <c r="AC27" s="154" t="s">
+      <c r="K27" s="128"/>
+      <c r="L27" s="128"/>
+      <c r="M27" s="128"/>
+      <c r="N27" s="128"/>
+      <c r="O27" s="128"/>
+      <c r="P27" s="128"/>
+      <c r="Q27" s="128"/>
+      <c r="R27" s="128"/>
+      <c r="S27" s="128"/>
+      <c r="T27" s="128"/>
+      <c r="U27" s="128"/>
+      <c r="V27" s="128"/>
+      <c r="W27" s="128"/>
+      <c r="X27" s="128"/>
+      <c r="Y27" s="128"/>
+      <c r="Z27" s="128"/>
+      <c r="AA27" s="128"/>
+      <c r="AB27" s="129"/>
+      <c r="AC27" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="AD27" s="155"/>
-      <c r="AE27" s="156"/>
+      <c r="AD27" s="140"/>
+      <c r="AE27" s="141"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="143"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="165"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="161"/>
-      <c r="J28" s="166"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="146"/>
-      <c r="M28" s="146"/>
-      <c r="N28" s="146"/>
-      <c r="O28" s="146"/>
-      <c r="P28" s="146"/>
-      <c r="Q28" s="146"/>
-      <c r="R28" s="146"/>
-      <c r="S28" s="146"/>
-      <c r="T28" s="146"/>
-      <c r="U28" s="146"/>
-      <c r="V28" s="146"/>
-      <c r="W28" s="146"/>
-      <c r="X28" s="146"/>
-      <c r="Y28" s="146"/>
-      <c r="Z28" s="146"/>
-      <c r="AA28" s="146"/>
-      <c r="AB28" s="147"/>
-      <c r="AC28" s="143"/>
-      <c r="AD28" s="158"/>
-      <c r="AE28" s="144"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="133"/>
+      <c r="K28" s="134"/>
+      <c r="L28" s="134"/>
+      <c r="M28" s="134"/>
+      <c r="N28" s="134"/>
+      <c r="O28" s="134"/>
+      <c r="P28" s="134"/>
+      <c r="Q28" s="134"/>
+      <c r="R28" s="134"/>
+      <c r="S28" s="134"/>
+      <c r="T28" s="134"/>
+      <c r="U28" s="134"/>
+      <c r="V28" s="134"/>
+      <c r="W28" s="134"/>
+      <c r="X28" s="134"/>
+      <c r="Y28" s="134"/>
+      <c r="Z28" s="134"/>
+      <c r="AA28" s="134"/>
+      <c r="AB28" s="135"/>
+      <c r="AC28" s="127"/>
+      <c r="AD28" s="128"/>
+      <c r="AE28" s="129"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="143"/>
-      <c r="C29" s="158"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="165"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="161"/>
-      <c r="J29" s="166"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="146"/>
-      <c r="M29" s="146"/>
-      <c r="N29" s="146"/>
-      <c r="O29" s="146"/>
-      <c r="P29" s="146"/>
-      <c r="Q29" s="146"/>
-      <c r="R29" s="146"/>
-      <c r="S29" s="146"/>
-      <c r="T29" s="146"/>
-      <c r="U29" s="146"/>
-      <c r="V29" s="146"/>
-      <c r="W29" s="146"/>
-      <c r="X29" s="146"/>
-      <c r="Y29" s="146"/>
-      <c r="Z29" s="146"/>
-      <c r="AA29" s="146"/>
-      <c r="AB29" s="147"/>
-      <c r="AC29" s="143"/>
-      <c r="AD29" s="158"/>
-      <c r="AE29" s="144"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="133"/>
+      <c r="K29" s="134"/>
+      <c r="L29" s="134"/>
+      <c r="M29" s="134"/>
+      <c r="N29" s="134"/>
+      <c r="O29" s="134"/>
+      <c r="P29" s="134"/>
+      <c r="Q29" s="134"/>
+      <c r="R29" s="134"/>
+      <c r="S29" s="134"/>
+      <c r="T29" s="134"/>
+      <c r="U29" s="134"/>
+      <c r="V29" s="134"/>
+      <c r="W29" s="134"/>
+      <c r="X29" s="134"/>
+      <c r="Y29" s="134"/>
+      <c r="Z29" s="134"/>
+      <c r="AA29" s="134"/>
+      <c r="AB29" s="135"/>
+      <c r="AC29" s="127"/>
+      <c r="AD29" s="128"/>
+      <c r="AE29" s="129"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="12"/>
-      <c r="B30" s="143"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="158"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="165"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="161"/>
-      <c r="J30" s="166"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="146"/>
-      <c r="M30" s="146"/>
-      <c r="N30" s="146"/>
-      <c r="O30" s="146"/>
-      <c r="P30" s="146"/>
-      <c r="Q30" s="146"/>
-      <c r="R30" s="146"/>
-      <c r="S30" s="146"/>
-      <c r="T30" s="146"/>
-      <c r="U30" s="146"/>
-      <c r="V30" s="146"/>
-      <c r="W30" s="146"/>
-      <c r="X30" s="146"/>
-      <c r="Y30" s="146"/>
-      <c r="Z30" s="146"/>
-      <c r="AA30" s="146"/>
-      <c r="AB30" s="147"/>
-      <c r="AC30" s="143"/>
-      <c r="AD30" s="158"/>
-      <c r="AE30" s="144"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="130"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="133"/>
+      <c r="K30" s="134"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="134"/>
+      <c r="N30" s="134"/>
+      <c r="O30" s="134"/>
+      <c r="P30" s="134"/>
+      <c r="Q30" s="134"/>
+      <c r="R30" s="134"/>
+      <c r="S30" s="134"/>
+      <c r="T30" s="134"/>
+      <c r="U30" s="134"/>
+      <c r="V30" s="134"/>
+      <c r="W30" s="134"/>
+      <c r="X30" s="134"/>
+      <c r="Y30" s="134"/>
+      <c r="Z30" s="134"/>
+      <c r="AA30" s="134"/>
+      <c r="AB30" s="135"/>
+      <c r="AC30" s="127"/>
+      <c r="AD30" s="128"/>
+      <c r="AE30" s="129"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="143"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="165"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="160"/>
-      <c r="I31" s="161"/>
-      <c r="J31" s="166"/>
-      <c r="K31" s="146"/>
-      <c r="L31" s="146"/>
-      <c r="M31" s="146"/>
-      <c r="N31" s="146"/>
-      <c r="O31" s="146"/>
-      <c r="P31" s="146"/>
-      <c r="Q31" s="146"/>
-      <c r="R31" s="146"/>
-      <c r="S31" s="146"/>
-      <c r="T31" s="146"/>
-      <c r="U31" s="146"/>
-      <c r="V31" s="146"/>
-      <c r="W31" s="146"/>
-      <c r="X31" s="146"/>
-      <c r="Y31" s="146"/>
-      <c r="Z31" s="146"/>
-      <c r="AA31" s="146"/>
-      <c r="AB31" s="147"/>
-      <c r="AC31" s="143"/>
-      <c r="AD31" s="158"/>
-      <c r="AE31" s="144"/>
+      <c r="B31" s="127"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="133"/>
+      <c r="K31" s="134"/>
+      <c r="L31" s="134"/>
+      <c r="M31" s="134"/>
+      <c r="N31" s="134"/>
+      <c r="O31" s="134"/>
+      <c r="P31" s="134"/>
+      <c r="Q31" s="134"/>
+      <c r="R31" s="134"/>
+      <c r="S31" s="134"/>
+      <c r="T31" s="134"/>
+      <c r="U31" s="134"/>
+      <c r="V31" s="134"/>
+      <c r="W31" s="134"/>
+      <c r="X31" s="134"/>
+      <c r="Y31" s="134"/>
+      <c r="Z31" s="134"/>
+      <c r="AA31" s="134"/>
+      <c r="AB31" s="135"/>
+      <c r="AC31" s="127"/>
+      <c r="AD31" s="128"/>
+      <c r="AE31" s="129"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="12"/>
-      <c r="B32" s="143"/>
-      <c r="C32" s="158"/>
-      <c r="D32" s="158"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="165"/>
-      <c r="G32" s="160"/>
-      <c r="H32" s="160"/>
-      <c r="I32" s="161"/>
-      <c r="J32" s="166"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="146"/>
-      <c r="M32" s="146"/>
-      <c r="N32" s="146"/>
-      <c r="O32" s="146"/>
-      <c r="P32" s="146"/>
-      <c r="Q32" s="146"/>
-      <c r="R32" s="146"/>
-      <c r="S32" s="146"/>
-      <c r="T32" s="146"/>
-      <c r="U32" s="146"/>
-      <c r="V32" s="146"/>
-      <c r="W32" s="146"/>
-      <c r="X32" s="146"/>
-      <c r="Y32" s="146"/>
-      <c r="Z32" s="146"/>
-      <c r="AA32" s="146"/>
-      <c r="AB32" s="147"/>
-      <c r="AC32" s="143"/>
-      <c r="AD32" s="158"/>
-      <c r="AE32" s="144"/>
+      <c r="B32" s="127"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="130"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="133"/>
+      <c r="K32" s="134"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="134"/>
+      <c r="N32" s="134"/>
+      <c r="O32" s="134"/>
+      <c r="P32" s="134"/>
+      <c r="Q32" s="134"/>
+      <c r="R32" s="134"/>
+      <c r="S32" s="134"/>
+      <c r="T32" s="134"/>
+      <c r="U32" s="134"/>
+      <c r="V32" s="134"/>
+      <c r="W32" s="134"/>
+      <c r="X32" s="134"/>
+      <c r="Y32" s="134"/>
+      <c r="Z32" s="134"/>
+      <c r="AA32" s="134"/>
+      <c r="AB32" s="135"/>
+      <c r="AC32" s="127"/>
+      <c r="AD32" s="128"/>
+      <c r="AE32" s="129"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="12"/>
-      <c r="B33" s="143"/>
-      <c r="C33" s="158"/>
-      <c r="D33" s="158"/>
-      <c r="E33" s="144"/>
-      <c r="F33" s="165"/>
-      <c r="G33" s="160"/>
-      <c r="H33" s="160"/>
-      <c r="I33" s="161"/>
-      <c r="J33" s="166"/>
-      <c r="K33" s="146"/>
-      <c r="L33" s="146"/>
-      <c r="M33" s="146"/>
-      <c r="N33" s="146"/>
-      <c r="O33" s="146"/>
-      <c r="P33" s="146"/>
-      <c r="Q33" s="146"/>
-      <c r="R33" s="146"/>
-      <c r="S33" s="146"/>
-      <c r="T33" s="146"/>
-      <c r="U33" s="146"/>
-      <c r="V33" s="146"/>
-      <c r="W33" s="146"/>
-      <c r="X33" s="146"/>
-      <c r="Y33" s="146"/>
-      <c r="Z33" s="146"/>
-      <c r="AA33" s="146"/>
-      <c r="AB33" s="147"/>
-      <c r="AC33" s="143"/>
-      <c r="AD33" s="158"/>
-      <c r="AE33" s="144"/>
+      <c r="B33" s="127"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="131"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="133"/>
+      <c r="K33" s="134"/>
+      <c r="L33" s="134"/>
+      <c r="M33" s="134"/>
+      <c r="N33" s="134"/>
+      <c r="O33" s="134"/>
+      <c r="P33" s="134"/>
+      <c r="Q33" s="134"/>
+      <c r="R33" s="134"/>
+      <c r="S33" s="134"/>
+      <c r="T33" s="134"/>
+      <c r="U33" s="134"/>
+      <c r="V33" s="134"/>
+      <c r="W33" s="134"/>
+      <c r="X33" s="134"/>
+      <c r="Y33" s="134"/>
+      <c r="Z33" s="134"/>
+      <c r="AA33" s="134"/>
+      <c r="AB33" s="135"/>
+      <c r="AC33" s="127"/>
+      <c r="AD33" s="128"/>
+      <c r="AE33" s="129"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -5589,51 +5589,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -5645,6 +5600,51 @@
     <mergeCell ref="AC9:AE12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="W9:Y12"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -5694,10 +5694,10 @@
       <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="170"/>
+      <c r="B2" s="168"/>
       <c r="C2" s="30" t="s">
         <v>7</v>
       </c>
@@ -5710,14 +5710,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="167" t="s">
+      <c r="B3" s="168"/>
+      <c r="C3" s="177" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="168"/>
+      <c r="D3" s="178"/>
       <c r="E3" s="32" t="s">
         <v>28</v>
       </c>
@@ -5726,10 +5726,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="170"/>
+      <c r="B4" s="168"/>
       <c r="C4" s="30" t="s">
         <v>30</v>
       </c>
@@ -5742,14 +5742,14 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="167" t="s">
+      <c r="B5" s="168"/>
+      <c r="C5" s="177" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="168"/>
+      <c r="D5" s="178"/>
       <c r="E5" s="32" t="s">
         <v>33</v>
       </c>
@@ -5758,10 +5758,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="169" t="s">
+      <c r="A6" s="167" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="170"/>
+      <c r="B6" s="168"/>
       <c r="C6" s="30" t="s">
         <v>35</v>
       </c>
@@ -5804,10 +5804,10 @@
       <c r="D9" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="177" t="s">
+      <c r="E9" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="178"/>
+      <c r="F9" s="176"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="44">
@@ -5822,10 +5822,10 @@
       <c r="D10" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="171" t="s">
+      <c r="E10" s="169" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="172"/>
+      <c r="F10" s="170"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="44">
@@ -5840,10 +5840,10 @@
       <c r="D11" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="171" t="s">
+      <c r="E11" s="169" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="172"/>
+      <c r="F11" s="170"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="44">
@@ -5858,10 +5858,10 @@
       <c r="D12" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="171" t="s">
+      <c r="E12" s="169" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="172"/>
+      <c r="F12" s="170"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="44">
@@ -5876,10 +5876,10 @@
       <c r="D13" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="171" t="s">
+      <c r="E13" s="169" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="172"/>
+      <c r="F13" s="170"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="44">
@@ -5894,10 +5894,10 @@
       <c r="D14" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="171" t="s">
+      <c r="E14" s="169" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="172"/>
+      <c r="F14" s="170"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="8">
@@ -5912,26 +5912,26 @@
       <c r="D15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="173" t="s">
+      <c r="E15" s="171" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="174"/>
+      <c r="F15" s="172"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="175"/>
-      <c r="F16" s="176"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="174"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="175"/>
-      <c r="F17" s="176"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="174"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1">
       <c r="A18" s="29" t="s">
@@ -6173,6 +6173,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
@@ -6183,12 +6189,6 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6262,10 +6262,10 @@
         <v>26</v>
       </c>
       <c r="B3" s="93"/>
-      <c r="C3" s="207" t="s">
+      <c r="C3" s="181" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="208"/>
+      <c r="D3" s="182"/>
       <c r="E3" s="40" t="s">
         <v>33</v>
       </c>
@@ -6312,42 +6312,42 @@
         <v>66</v>
       </c>
       <c r="B6" s="96"/>
-      <c r="C6" s="209" t="s">
+      <c r="C6" s="183" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="210"/>
-      <c r="E6" s="210"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="211"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="185"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="93" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="96"/>
-      <c r="C7" s="209" t="s">
+      <c r="C7" s="183" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="210"/>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="211"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="185"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="93" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="96"/>
-      <c r="C8" s="209" t="s">
+      <c r="C8" s="183" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="210"/>
-      <c r="E8" s="210"/>
-      <c r="F8" s="210"/>
-      <c r="G8" s="210"/>
-      <c r="H8" s="211"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="185"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="97" t="s">
@@ -6368,10 +6368,10 @@
       <c r="B10" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="190" t="s">
+      <c r="C10" s="186" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="212"/>
+      <c r="D10" s="187"/>
       <c r="E10" s="99" t="s">
         <v>73</v>
       </c>
@@ -6392,10 +6392,10 @@
       <c r="B11" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="213" t="s">
+      <c r="C11" s="188" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="214"/>
+      <c r="D11" s="189"/>
       <c r="E11" s="48" t="s">
         <v>79</v>
       </c>
@@ -6414,10 +6414,10 @@
       <c r="B12" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="205" t="s">
+      <c r="C12" s="179" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="206"/>
+      <c r="D12" s="180"/>
       <c r="E12" s="51" t="s">
         <v>186</v>
       </c>
@@ -6434,10 +6434,10 @@
       <c r="B13" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="205" t="s">
+      <c r="C13" s="179" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="206"/>
+      <c r="D13" s="180"/>
       <c r="E13" s="51" t="s">
         <v>86</v>
       </c>
@@ -6454,10 +6454,10 @@
       <c r="B14" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="205" t="s">
+      <c r="C14" s="179" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="206"/>
+      <c r="D14" s="180"/>
       <c r="E14" s="54" t="s">
         <v>90</v>
       </c>
@@ -6472,8 +6472,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="52"/>
       <c r="B15" s="53"/>
-      <c r="C15" s="205"/>
-      <c r="D15" s="206"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="180"/>
       <c r="E15" s="54"/>
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
@@ -6482,8 +6482,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="52"/>
       <c r="B16" s="53"/>
-      <c r="C16" s="205"/>
-      <c r="D16" s="206"/>
+      <c r="C16" s="179"/>
+      <c r="D16" s="180"/>
       <c r="E16" s="54"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -6492,8 +6492,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="52"/>
       <c r="B17" s="53"/>
-      <c r="C17" s="205"/>
-      <c r="D17" s="206"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="180"/>
       <c r="E17" s="54"/>
       <c r="F17" s="54"/>
       <c r="G17" s="54"/>
@@ -6502,8 +6502,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="52"/>
       <c r="B18" s="53"/>
-      <c r="C18" s="205"/>
-      <c r="D18" s="206"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="180"/>
       <c r="E18" s="54"/>
       <c r="F18" s="54"/>
       <c r="G18" s="54"/>
@@ -6512,8 +6512,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="52"/>
       <c r="B19" s="53"/>
-      <c r="C19" s="205"/>
-      <c r="D19" s="206"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="180"/>
       <c r="E19" s="54"/>
       <c r="F19" s="54"/>
       <c r="G19" s="54"/>
@@ -6522,8 +6522,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="52"/>
       <c r="B20" s="53"/>
-      <c r="C20" s="205"/>
-      <c r="D20" s="206"/>
+      <c r="C20" s="179"/>
+      <c r="D20" s="180"/>
       <c r="E20" s="54"/>
       <c r="F20" s="54"/>
       <c r="G20" s="54"/>
@@ -6532,8 +6532,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="52"/>
       <c r="B21" s="53"/>
-      <c r="C21" s="205"/>
-      <c r="D21" s="206"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="180"/>
       <c r="E21" s="54"/>
       <c r="F21" s="54"/>
       <c r="G21" s="54"/>
@@ -6542,8 +6542,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="52"/>
       <c r="B22" s="53"/>
-      <c r="C22" s="205"/>
-      <c r="D22" s="206"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="180"/>
       <c r="E22" s="54"/>
       <c r="F22" s="54"/>
       <c r="G22" s="54"/>
@@ -6552,8 +6552,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="52"/>
       <c r="B23" s="53"/>
-      <c r="C23" s="205"/>
-      <c r="D23" s="206"/>
+      <c r="C23" s="179"/>
+      <c r="D23" s="180"/>
       <c r="E23" s="54"/>
       <c r="F23" s="54"/>
       <c r="G23" s="54"/>
@@ -6562,8 +6562,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="52"/>
       <c r="B24" s="53"/>
-      <c r="C24" s="205"/>
-      <c r="D24" s="206"/>
+      <c r="C24" s="179"/>
+      <c r="D24" s="180"/>
       <c r="E24" s="54"/>
       <c r="F24" s="54"/>
       <c r="G24" s="54"/>
@@ -6572,8 +6572,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="52"/>
       <c r="B25" s="53"/>
-      <c r="C25" s="205"/>
-      <c r="D25" s="206"/>
+      <c r="C25" s="179"/>
+      <c r="D25" s="180"/>
       <c r="E25" s="54"/>
       <c r="F25" s="54"/>
       <c r="G25" s="54"/>
@@ -6582,8 +6582,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="52"/>
       <c r="B26" s="53"/>
-      <c r="C26" s="205"/>
-      <c r="D26" s="206"/>
+      <c r="C26" s="179"/>
+      <c r="D26" s="180"/>
       <c r="E26" s="54"/>
       <c r="F26" s="54"/>
       <c r="G26" s="54"/>
@@ -6592,8 +6592,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="52"/>
       <c r="B27" s="53"/>
-      <c r="C27" s="205"/>
-      <c r="D27" s="206"/>
+      <c r="C27" s="179"/>
+      <c r="D27" s="180"/>
       <c r="E27" s="54"/>
       <c r="F27" s="54"/>
       <c r="G27" s="54"/>
@@ -6602,8 +6602,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="52"/>
       <c r="B28" s="53"/>
-      <c r="C28" s="205"/>
-      <c r="D28" s="206"/>
+      <c r="C28" s="179"/>
+      <c r="D28" s="180"/>
       <c r="E28" s="54"/>
       <c r="F28" s="54"/>
       <c r="G28" s="54"/>
@@ -6612,8 +6612,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="52"/>
       <c r="B29" s="53"/>
-      <c r="C29" s="205"/>
-      <c r="D29" s="206"/>
+      <c r="C29" s="179"/>
+      <c r="D29" s="180"/>
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>
       <c r="G29" s="54"/>
@@ -6622,8 +6622,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="55"/>
       <c r="B30" s="56"/>
-      <c r="C30" s="182"/>
-      <c r="D30" s="184"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="191"/>
       <c r="E30" s="57"/>
       <c r="F30" s="57"/>
       <c r="G30" s="57"/>
@@ -6655,10 +6655,10 @@
       <c r="A33" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="187" t="s">
+      <c r="B33" s="192" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="189"/>
+      <c r="C33" s="193"/>
       <c r="D33" s="107" t="s">
         <v>94</v>
       </c>
@@ -6673,8 +6673,8 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="46"/>
-      <c r="B34" s="203"/>
-      <c r="C34" s="204"/>
+      <c r="B34" s="194"/>
+      <c r="C34" s="195"/>
       <c r="D34" s="196"/>
       <c r="E34" s="197"/>
       <c r="F34" s="198"/>
@@ -6685,9 +6685,9 @@
       <c r="A35" s="49"/>
       <c r="B35" s="199"/>
       <c r="C35" s="200"/>
-      <c r="D35" s="179"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="181"/>
+      <c r="D35" s="201"/>
+      <c r="E35" s="202"/>
+      <c r="F35" s="203"/>
       <c r="G35" s="51"/>
       <c r="H35" s="102"/>
     </row>
@@ -6695,9 +6695,9 @@
       <c r="A36" s="49"/>
       <c r="B36" s="199"/>
       <c r="C36" s="200"/>
-      <c r="D36" s="179"/>
-      <c r="E36" s="180"/>
-      <c r="F36" s="181"/>
+      <c r="D36" s="201"/>
+      <c r="E36" s="202"/>
+      <c r="F36" s="203"/>
       <c r="G36" s="51"/>
       <c r="H36" s="102"/>
     </row>
@@ -6705,19 +6705,19 @@
       <c r="A37" s="49"/>
       <c r="B37" s="199"/>
       <c r="C37" s="200"/>
-      <c r="D37" s="179"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="181"/>
+      <c r="D37" s="201"/>
+      <c r="E37" s="202"/>
+      <c r="F37" s="203"/>
       <c r="G37" s="51"/>
       <c r="H37" s="102"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="55"/>
-      <c r="B38" s="201"/>
-      <c r="C38" s="202"/>
-      <c r="D38" s="182"/>
-      <c r="E38" s="183"/>
-      <c r="F38" s="184"/>
+      <c r="B38" s="204"/>
+      <c r="C38" s="205"/>
+      <c r="D38" s="190"/>
+      <c r="E38" s="206"/>
+      <c r="F38" s="191"/>
       <c r="G38" s="57"/>
       <c r="H38" s="104"/>
     </row>
@@ -6750,15 +6750,15 @@
       <c r="B41" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="187" t="s">
+      <c r="C41" s="192" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="188"/>
-      <c r="E41" s="189"/>
-      <c r="F41" s="187" t="s">
+      <c r="D41" s="207"/>
+      <c r="E41" s="193"/>
+      <c r="F41" s="192" t="s">
         <v>98</v>
       </c>
-      <c r="G41" s="195"/>
+      <c r="G41" s="208"/>
       <c r="H41" s="111" t="s">
         <v>99</v>
       </c>
@@ -6776,41 +6776,41 @@
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="61"/>
       <c r="B43" s="62"/>
-      <c r="C43" s="179"/>
-      <c r="D43" s="180"/>
-      <c r="E43" s="181"/>
-      <c r="F43" s="179"/>
-      <c r="G43" s="181"/>
+      <c r="C43" s="201"/>
+      <c r="D43" s="202"/>
+      <c r="E43" s="203"/>
+      <c r="F43" s="201"/>
+      <c r="G43" s="203"/>
       <c r="H43" s="63"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="61"/>
       <c r="B44" s="62"/>
-      <c r="C44" s="179"/>
-      <c r="D44" s="180"/>
-      <c r="E44" s="181"/>
-      <c r="F44" s="179"/>
-      <c r="G44" s="181"/>
+      <c r="C44" s="201"/>
+      <c r="D44" s="202"/>
+      <c r="E44" s="203"/>
+      <c r="F44" s="201"/>
+      <c r="G44" s="203"/>
       <c r="H44" s="63"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="61"/>
       <c r="B45" s="62"/>
-      <c r="C45" s="179"/>
-      <c r="D45" s="180"/>
-      <c r="E45" s="181"/>
-      <c r="F45" s="179"/>
-      <c r="G45" s="181"/>
+      <c r="C45" s="201"/>
+      <c r="D45" s="202"/>
+      <c r="E45" s="203"/>
+      <c r="F45" s="201"/>
+      <c r="G45" s="203"/>
       <c r="H45" s="63"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="64"/>
       <c r="B46" s="65"/>
-      <c r="C46" s="182"/>
-      <c r="D46" s="183"/>
-      <c r="E46" s="184"/>
-      <c r="F46" s="185"/>
-      <c r="G46" s="186"/>
+      <c r="C46" s="190"/>
+      <c r="D46" s="206"/>
+      <c r="E46" s="191"/>
+      <c r="F46" s="209"/>
+      <c r="G46" s="210"/>
       <c r="H46" s="66"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -6842,15 +6842,15 @@
       <c r="B49" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="187" t="s">
+      <c r="C49" s="192" t="s">
         <v>94</v>
       </c>
-      <c r="D49" s="188"/>
-      <c r="E49" s="189"/>
-      <c r="F49" s="190" t="s">
+      <c r="D49" s="207"/>
+      <c r="E49" s="193"/>
+      <c r="F49" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="G49" s="191"/>
+      <c r="G49" s="211"/>
       <c r="H49" s="100" t="s">
         <v>102</v>
       </c>
@@ -6860,15 +6860,15 @@
         <v>1</v>
       </c>
       <c r="B50" s="92"/>
-      <c r="C50" s="192" t="s">
+      <c r="C50" s="212" t="s">
         <v>78</v>
       </c>
-      <c r="D50" s="193"/>
-      <c r="E50" s="194"/>
-      <c r="F50" s="192" t="s">
+      <c r="D50" s="213"/>
+      <c r="E50" s="214"/>
+      <c r="F50" s="212" t="s">
         <v>103</v>
       </c>
-      <c r="G50" s="194"/>
+      <c r="G50" s="214"/>
       <c r="H50" s="113" t="s">
         <v>78</v>
       </c>
@@ -6876,45 +6876,93 @@
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="61"/>
       <c r="B51" s="62"/>
-      <c r="C51" s="179"/>
-      <c r="D51" s="180"/>
-      <c r="E51" s="181"/>
-      <c r="F51" s="179"/>
-      <c r="G51" s="181"/>
+      <c r="C51" s="201"/>
+      <c r="D51" s="202"/>
+      <c r="E51" s="203"/>
+      <c r="F51" s="201"/>
+      <c r="G51" s="203"/>
       <c r="H51" s="63"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="61"/>
       <c r="B52" s="62"/>
-      <c r="C52" s="179"/>
-      <c r="D52" s="180"/>
-      <c r="E52" s="181"/>
-      <c r="F52" s="179"/>
-      <c r="G52" s="181"/>
+      <c r="C52" s="201"/>
+      <c r="D52" s="202"/>
+      <c r="E52" s="203"/>
+      <c r="F52" s="201"/>
+      <c r="G52" s="203"/>
       <c r="H52" s="63"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="61"/>
       <c r="B53" s="62"/>
-      <c r="C53" s="179"/>
-      <c r="D53" s="180"/>
-      <c r="E53" s="181"/>
-      <c r="F53" s="179"/>
-      <c r="G53" s="181"/>
+      <c r="C53" s="201"/>
+      <c r="D53" s="202"/>
+      <c r="E53" s="203"/>
+      <c r="F53" s="201"/>
+      <c r="G53" s="203"/>
       <c r="H53" s="63"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="64"/>
       <c r="B54" s="65"/>
-      <c r="C54" s="182"/>
-      <c r="D54" s="183"/>
-      <c r="E54" s="184"/>
-      <c r="F54" s="185"/>
-      <c r="G54" s="186"/>
+      <c r="C54" s="190"/>
+      <c r="D54" s="206"/>
+      <c r="E54" s="191"/>
+      <c r="F54" s="209"/>
+      <c r="G54" s="210"/>
       <c r="H54" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C6:H6"/>
@@ -6927,54 +6975,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7042,10 +7042,10 @@
         <v>26</v>
       </c>
       <c r="B3" s="93"/>
-      <c r="C3" s="207" t="s">
+      <c r="C3" s="181" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="208"/>
+      <c r="D3" s="182"/>
       <c r="E3" s="40" t="s">
         <v>33</v>
       </c>
@@ -7101,28 +7101,28 @@
         <v>40</v>
       </c>
       <c r="B7" s="96"/>
-      <c r="C7" s="209" t="s">
+      <c r="C7" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="210"/>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="211"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="185"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="93" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="96"/>
-      <c r="C8" s="209" t="s">
+      <c r="C8" s="183" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="210"/>
-      <c r="E8" s="210"/>
-      <c r="F8" s="210"/>
-      <c r="G8" s="210"/>
-      <c r="H8" s="211"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="185"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="97" t="s">
@@ -7143,10 +7143,10 @@
       <c r="B10" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="190" t="s">
+      <c r="C10" s="186" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="212"/>
+      <c r="D10" s="187"/>
       <c r="E10" s="99" t="s">
         <v>73</v>
       </c>
@@ -7167,10 +7167,10 @@
       <c r="B11" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="213" t="s">
+      <c r="C11" s="188" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="214"/>
+      <c r="D11" s="189"/>
       <c r="E11" s="48" t="s">
         <v>79</v>
       </c>
@@ -7189,10 +7189,10 @@
       <c r="B12" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="205" t="s">
+      <c r="C12" s="179" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="206"/>
+      <c r="D12" s="180"/>
       <c r="E12" s="51" t="s">
         <v>112</v>
       </c>
@@ -7211,10 +7211,10 @@
       <c r="B13" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="C13" s="205" t="s">
+      <c r="C13" s="179" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="206"/>
+      <c r="D13" s="180"/>
       <c r="E13" s="51" t="s">
         <v>114</v>
       </c>
@@ -7227,8 +7227,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="52"/>
       <c r="B14" s="53"/>
-      <c r="C14" s="205"/>
-      <c r="D14" s="206"/>
+      <c r="C14" s="179"/>
+      <c r="D14" s="180"/>
       <c r="E14" s="54"/>
       <c r="F14" s="54"/>
       <c r="G14" s="54"/>
@@ -7237,8 +7237,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="52"/>
       <c r="B15" s="53"/>
-      <c r="C15" s="205"/>
-      <c r="D15" s="206"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="180"/>
       <c r="E15" s="54"/>
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
@@ -7247,8 +7247,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="52"/>
       <c r="B16" s="53"/>
-      <c r="C16" s="205"/>
-      <c r="D16" s="206"/>
+      <c r="C16" s="179"/>
+      <c r="D16" s="180"/>
       <c r="E16" s="54"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -7257,8 +7257,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="52"/>
       <c r="B17" s="53"/>
-      <c r="C17" s="205"/>
-      <c r="D17" s="206"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="180"/>
       <c r="E17" s="54"/>
       <c r="F17" s="54"/>
       <c r="G17" s="54"/>
@@ -7267,8 +7267,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="52"/>
       <c r="B18" s="53"/>
-      <c r="C18" s="205"/>
-      <c r="D18" s="206"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="180"/>
       <c r="E18" s="54"/>
       <c r="F18" s="54"/>
       <c r="G18" s="54"/>
@@ -7277,8 +7277,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="52"/>
       <c r="B19" s="53"/>
-      <c r="C19" s="205"/>
-      <c r="D19" s="206"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="180"/>
       <c r="E19" s="54"/>
       <c r="F19" s="54"/>
       <c r="G19" s="54"/>
@@ -7287,8 +7287,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="52"/>
       <c r="B20" s="53"/>
-      <c r="C20" s="205"/>
-      <c r="D20" s="206"/>
+      <c r="C20" s="179"/>
+      <c r="D20" s="180"/>
       <c r="E20" s="54"/>
       <c r="F20" s="54"/>
       <c r="G20" s="54"/>
@@ -7297,8 +7297,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="52"/>
       <c r="B21" s="53"/>
-      <c r="C21" s="205"/>
-      <c r="D21" s="206"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="180"/>
       <c r="E21" s="54"/>
       <c r="F21" s="54"/>
       <c r="G21" s="54"/>
@@ -7307,8 +7307,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="52"/>
       <c r="B22" s="53"/>
-      <c r="C22" s="205"/>
-      <c r="D22" s="206"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="180"/>
       <c r="E22" s="54"/>
       <c r="F22" s="54"/>
       <c r="G22" s="54"/>
@@ -7317,8 +7317,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="52"/>
       <c r="B23" s="53"/>
-      <c r="C23" s="205"/>
-      <c r="D23" s="206"/>
+      <c r="C23" s="179"/>
+      <c r="D23" s="180"/>
       <c r="E23" s="54"/>
       <c r="F23" s="54"/>
       <c r="G23" s="54"/>
@@ -7327,8 +7327,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="52"/>
       <c r="B24" s="53"/>
-      <c r="C24" s="205"/>
-      <c r="D24" s="206"/>
+      <c r="C24" s="179"/>
+      <c r="D24" s="180"/>
       <c r="E24" s="54"/>
       <c r="F24" s="54"/>
       <c r="G24" s="54"/>
@@ -7337,8 +7337,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="52"/>
       <c r="B25" s="53"/>
-      <c r="C25" s="205"/>
-      <c r="D25" s="206"/>
+      <c r="C25" s="179"/>
+      <c r="D25" s="180"/>
       <c r="E25" s="54"/>
       <c r="F25" s="54"/>
       <c r="G25" s="54"/>
@@ -7347,8 +7347,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="52"/>
       <c r="B26" s="53"/>
-      <c r="C26" s="205"/>
-      <c r="D26" s="206"/>
+      <c r="C26" s="179"/>
+      <c r="D26" s="180"/>
       <c r="E26" s="54"/>
       <c r="F26" s="54"/>
       <c r="G26" s="54"/>
@@ -7357,8 +7357,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="52"/>
       <c r="B27" s="53"/>
-      <c r="C27" s="205"/>
-      <c r="D27" s="206"/>
+      <c r="C27" s="179"/>
+      <c r="D27" s="180"/>
       <c r="E27" s="54"/>
       <c r="F27" s="54"/>
       <c r="G27" s="54"/>
@@ -7367,8 +7367,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="52"/>
       <c r="B28" s="53"/>
-      <c r="C28" s="205"/>
-      <c r="D28" s="206"/>
+      <c r="C28" s="179"/>
+      <c r="D28" s="180"/>
       <c r="E28" s="54"/>
       <c r="F28" s="54"/>
       <c r="G28" s="54"/>
@@ -7377,8 +7377,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="52"/>
       <c r="B29" s="53"/>
-      <c r="C29" s="205"/>
-      <c r="D29" s="206"/>
+      <c r="C29" s="179"/>
+      <c r="D29" s="180"/>
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>
       <c r="G29" s="54"/>
@@ -7387,8 +7387,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="55"/>
       <c r="B30" s="56"/>
-      <c r="C30" s="182"/>
-      <c r="D30" s="184"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="191"/>
       <c r="E30" s="57"/>
       <c r="F30" s="57"/>
       <c r="G30" s="57"/>
@@ -7420,10 +7420,10 @@
       <c r="A33" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="187" t="s">
+      <c r="B33" s="192" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="189"/>
+      <c r="C33" s="193"/>
       <c r="D33" s="107" t="s">
         <v>94</v>
       </c>
@@ -7438,8 +7438,8 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="46"/>
-      <c r="B34" s="203"/>
-      <c r="C34" s="204"/>
+      <c r="B34" s="194"/>
+      <c r="C34" s="195"/>
       <c r="D34" s="196"/>
       <c r="E34" s="197"/>
       <c r="F34" s="198"/>
@@ -7450,9 +7450,9 @@
       <c r="A35" s="49"/>
       <c r="B35" s="199"/>
       <c r="C35" s="200"/>
-      <c r="D35" s="179"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="181"/>
+      <c r="D35" s="201"/>
+      <c r="E35" s="202"/>
+      <c r="F35" s="203"/>
       <c r="G35" s="51"/>
       <c r="H35" s="102"/>
     </row>
@@ -7460,9 +7460,9 @@
       <c r="A36" s="49"/>
       <c r="B36" s="199"/>
       <c r="C36" s="200"/>
-      <c r="D36" s="179"/>
-      <c r="E36" s="180"/>
-      <c r="F36" s="181"/>
+      <c r="D36" s="201"/>
+      <c r="E36" s="202"/>
+      <c r="F36" s="203"/>
       <c r="G36" s="51"/>
       <c r="H36" s="102"/>
     </row>
@@ -7470,19 +7470,19 @@
       <c r="A37" s="49"/>
       <c r="B37" s="199"/>
       <c r="C37" s="200"/>
-      <c r="D37" s="179"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="181"/>
+      <c r="D37" s="201"/>
+      <c r="E37" s="202"/>
+      <c r="F37" s="203"/>
       <c r="G37" s="51"/>
       <c r="H37" s="102"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
       <c r="A38" s="55"/>
-      <c r="B38" s="201"/>
-      <c r="C38" s="202"/>
-      <c r="D38" s="182"/>
-      <c r="E38" s="183"/>
-      <c r="F38" s="184"/>
+      <c r="B38" s="204"/>
+      <c r="C38" s="205"/>
+      <c r="D38" s="190"/>
+      <c r="E38" s="206"/>
+      <c r="F38" s="191"/>
       <c r="G38" s="57"/>
       <c r="H38" s="104"/>
     </row>
@@ -7515,15 +7515,15 @@
       <c r="B41" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="187" t="s">
+      <c r="C41" s="192" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="188"/>
-      <c r="E41" s="189"/>
-      <c r="F41" s="187" t="s">
+      <c r="D41" s="207"/>
+      <c r="E41" s="193"/>
+      <c r="F41" s="192" t="s">
         <v>98</v>
       </c>
-      <c r="G41" s="195"/>
+      <c r="G41" s="208"/>
       <c r="H41" s="111" t="s">
         <v>99</v>
       </c>
@@ -7550,12 +7550,12 @@
       <c r="C43" s="218" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="180"/>
-      <c r="E43" s="181"/>
+      <c r="D43" s="202"/>
+      <c r="E43" s="203"/>
       <c r="F43" s="218" t="s">
         <v>116</v>
       </c>
-      <c r="G43" s="181"/>
+      <c r="G43" s="203"/>
       <c r="H43" s="126" t="s">
         <v>108</v>
       </c>
@@ -7563,31 +7563,31 @@
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="61"/>
       <c r="B44" s="62"/>
-      <c r="C44" s="179"/>
-      <c r="D44" s="180"/>
-      <c r="E44" s="181"/>
-      <c r="F44" s="179"/>
-      <c r="G44" s="181"/>
+      <c r="C44" s="201"/>
+      <c r="D44" s="202"/>
+      <c r="E44" s="203"/>
+      <c r="F44" s="201"/>
+      <c r="G44" s="203"/>
       <c r="H44" s="63"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="61"/>
       <c r="B45" s="62"/>
-      <c r="C45" s="179"/>
-      <c r="D45" s="180"/>
-      <c r="E45" s="181"/>
-      <c r="F45" s="179"/>
-      <c r="G45" s="181"/>
+      <c r="C45" s="201"/>
+      <c r="D45" s="202"/>
+      <c r="E45" s="203"/>
+      <c r="F45" s="201"/>
+      <c r="G45" s="203"/>
       <c r="H45" s="63"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
       <c r="A46" s="64"/>
       <c r="B46" s="65"/>
-      <c r="C46" s="182"/>
-      <c r="D46" s="183"/>
-      <c r="E46" s="184"/>
-      <c r="F46" s="185"/>
-      <c r="G46" s="186"/>
+      <c r="C46" s="190"/>
+      <c r="D46" s="206"/>
+      <c r="E46" s="191"/>
+      <c r="F46" s="209"/>
+      <c r="G46" s="210"/>
       <c r="H46" s="66"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -7619,15 +7619,15 @@
       <c r="B49" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="187" t="s">
+      <c r="C49" s="192" t="s">
         <v>94</v>
       </c>
-      <c r="D49" s="188"/>
-      <c r="E49" s="189"/>
-      <c r="F49" s="190" t="s">
+      <c r="D49" s="207"/>
+      <c r="E49" s="193"/>
+      <c r="F49" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="G49" s="191"/>
+      <c r="G49" s="211"/>
       <c r="H49" s="100" t="s">
         <v>102</v>
       </c>
@@ -7637,83 +7637,73 @@
         <v>1</v>
       </c>
       <c r="B50" s="92"/>
-      <c r="C50" s="192"/>
-      <c r="D50" s="193"/>
-      <c r="E50" s="194"/>
-      <c r="F50" s="192"/>
-      <c r="G50" s="194"/>
+      <c r="C50" s="212"/>
+      <c r="D50" s="213"/>
+      <c r="E50" s="214"/>
+      <c r="F50" s="212"/>
+      <c r="G50" s="214"/>
       <c r="H50" s="113"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="61"/>
       <c r="B51" s="62"/>
-      <c r="C51" s="179"/>
-      <c r="D51" s="180"/>
-      <c r="E51" s="181"/>
-      <c r="F51" s="179"/>
-      <c r="G51" s="181"/>
+      <c r="C51" s="201"/>
+      <c r="D51" s="202"/>
+      <c r="E51" s="203"/>
+      <c r="F51" s="201"/>
+      <c r="G51" s="203"/>
       <c r="H51" s="63"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="61"/>
       <c r="B52" s="62"/>
-      <c r="C52" s="179"/>
-      <c r="D52" s="180"/>
-      <c r="E52" s="181"/>
-      <c r="F52" s="179"/>
-      <c r="G52" s="181"/>
+      <c r="C52" s="201"/>
+      <c r="D52" s="202"/>
+      <c r="E52" s="203"/>
+      <c r="F52" s="201"/>
+      <c r="G52" s="203"/>
       <c r="H52" s="63"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="61"/>
       <c r="B53" s="62"/>
-      <c r="C53" s="179"/>
-      <c r="D53" s="180"/>
-      <c r="E53" s="181"/>
-      <c r="F53" s="179"/>
-      <c r="G53" s="181"/>
+      <c r="C53" s="201"/>
+      <c r="D53" s="202"/>
+      <c r="E53" s="203"/>
+      <c r="F53" s="201"/>
+      <c r="G53" s="203"/>
       <c r="H53" s="63"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1">
       <c r="A54" s="64"/>
       <c r="B54" s="65"/>
-      <c r="C54" s="182"/>
-      <c r="D54" s="183"/>
-      <c r="E54" s="184"/>
-      <c r="F54" s="185"/>
-      <c r="G54" s="186"/>
+      <c r="C54" s="190"/>
+      <c r="D54" s="206"/>
+      <c r="E54" s="191"/>
+      <c r="F54" s="209"/>
+      <c r="G54" s="210"/>
       <c r="H54" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -7727,24 +7717,34 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7812,10 +7812,10 @@
         <v>26</v>
       </c>
       <c r="B3" s="93"/>
-      <c r="C3" s="221" t="s">
+      <c r="C3" s="219" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="222"/>
+      <c r="D3" s="220"/>
       <c r="E3" s="40" t="s">
         <v>33</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>14</v>
       </c>
       <c r="H4" s="121" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1">
@@ -7862,42 +7862,42 @@
         <v>66</v>
       </c>
       <c r="B6" s="96"/>
-      <c r="C6" s="209" t="s">
+      <c r="C6" s="183" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="210"/>
-      <c r="E6" s="210"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="211"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="185"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="93" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="96"/>
-      <c r="C7" s="209" t="s">
+      <c r="C7" s="183" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="210"/>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="211"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="185"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="93" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="96"/>
-      <c r="C8" s="209" t="s">
+      <c r="C8" s="183" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="210"/>
-      <c r="E8" s="210"/>
-      <c r="F8" s="210"/>
-      <c r="G8" s="210"/>
-      <c r="H8" s="211"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="185"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="97" t="s">
@@ -7918,10 +7918,10 @@
       <c r="B10" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="190" t="s">
+      <c r="C10" s="186" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="212"/>
+      <c r="D10" s="187"/>
       <c r="E10" s="99" t="s">
         <v>73</v>
       </c>
@@ -7942,10 +7942,10 @@
       <c r="B11" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="219" t="s">
+      <c r="C11" s="224" t="s">
         <v>191</v>
       </c>
-      <c r="D11" s="220"/>
+      <c r="D11" s="225"/>
       <c r="E11" s="48" t="s">
         <v>112</v>
       </c>
@@ -7964,10 +7964,10 @@
       <c r="B12" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="205" t="s">
+      <c r="C12" s="179" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="206"/>
+      <c r="D12" s="180"/>
       <c r="E12" s="51" t="s">
         <v>188</v>
       </c>
@@ -7980,8 +7980,8 @@
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="49"/>
       <c r="B13" s="50"/>
-      <c r="C13" s="205"/>
-      <c r="D13" s="206"/>
+      <c r="C13" s="179"/>
+      <c r="D13" s="180"/>
       <c r="E13" s="51"/>
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
@@ -7990,8 +7990,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="52"/>
       <c r="B14" s="53"/>
-      <c r="C14" s="205"/>
-      <c r="D14" s="206"/>
+      <c r="C14" s="179"/>
+      <c r="D14" s="180"/>
       <c r="E14" s="54"/>
       <c r="F14" s="54"/>
       <c r="G14" s="54"/>
@@ -8000,8 +8000,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="52"/>
       <c r="B15" s="53"/>
-      <c r="C15" s="205"/>
-      <c r="D15" s="206"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="180"/>
       <c r="E15" s="54"/>
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
@@ -8010,8 +8010,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="52"/>
       <c r="B16" s="53"/>
-      <c r="C16" s="205"/>
-      <c r="D16" s="206"/>
+      <c r="C16" s="179"/>
+      <c r="D16" s="180"/>
       <c r="E16" s="54"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -8020,8 +8020,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="52"/>
       <c r="B17" s="53"/>
-      <c r="C17" s="205"/>
-      <c r="D17" s="206"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="180"/>
       <c r="E17" s="54"/>
       <c r="F17" s="54"/>
       <c r="G17" s="54"/>
@@ -8030,8 +8030,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="52"/>
       <c r="B18" s="53"/>
-      <c r="C18" s="205"/>
-      <c r="D18" s="206"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="180"/>
       <c r="E18" s="54"/>
       <c r="F18" s="54"/>
       <c r="G18" s="54"/>
@@ -8040,8 +8040,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="52"/>
       <c r="B19" s="53"/>
-      <c r="C19" s="205"/>
-      <c r="D19" s="206"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="180"/>
       <c r="E19" s="54"/>
       <c r="F19" s="54"/>
       <c r="G19" s="54"/>
@@ -8050,8 +8050,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="52"/>
       <c r="B20" s="53"/>
-      <c r="C20" s="205"/>
-      <c r="D20" s="206"/>
+      <c r="C20" s="179"/>
+      <c r="D20" s="180"/>
       <c r="E20" s="54"/>
       <c r="F20" s="54"/>
       <c r="G20" s="54"/>
@@ -8060,8 +8060,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="52"/>
       <c r="B21" s="53"/>
-      <c r="C21" s="205"/>
-      <c r="D21" s="206"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="180"/>
       <c r="E21" s="54"/>
       <c r="F21" s="54"/>
       <c r="G21" s="54"/>
@@ -8070,8 +8070,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="52"/>
       <c r="B22" s="53"/>
-      <c r="C22" s="205"/>
-      <c r="D22" s="206"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="180"/>
       <c r="E22" s="54"/>
       <c r="F22" s="54"/>
       <c r="G22" s="54"/>
@@ -8080,8 +8080,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="52"/>
       <c r="B23" s="53"/>
-      <c r="C23" s="205"/>
-      <c r="D23" s="206"/>
+      <c r="C23" s="179"/>
+      <c r="D23" s="180"/>
       <c r="E23" s="54"/>
       <c r="F23" s="54"/>
       <c r="G23" s="54"/>
@@ -8090,8 +8090,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="52"/>
       <c r="B24" s="53"/>
-      <c r="C24" s="205"/>
-      <c r="D24" s="206"/>
+      <c r="C24" s="179"/>
+      <c r="D24" s="180"/>
       <c r="E24" s="54"/>
       <c r="F24" s="54"/>
       <c r="G24" s="54"/>
@@ -8100,8 +8100,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="52"/>
       <c r="B25" s="53"/>
-      <c r="C25" s="205"/>
-      <c r="D25" s="206"/>
+      <c r="C25" s="179"/>
+      <c r="D25" s="180"/>
       <c r="E25" s="54"/>
       <c r="F25" s="54"/>
       <c r="G25" s="54"/>
@@ -8110,8 +8110,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="52"/>
       <c r="B26" s="53"/>
-      <c r="C26" s="205"/>
-      <c r="D26" s="206"/>
+      <c r="C26" s="179"/>
+      <c r="D26" s="180"/>
       <c r="E26" s="54"/>
       <c r="F26" s="54"/>
       <c r="G26" s="54"/>
@@ -8120,8 +8120,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="52"/>
       <c r="B27" s="53"/>
-      <c r="C27" s="205"/>
-      <c r="D27" s="206"/>
+      <c r="C27" s="179"/>
+      <c r="D27" s="180"/>
       <c r="E27" s="54"/>
       <c r="F27" s="54"/>
       <c r="G27" s="54"/>
@@ -8130,8 +8130,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="52"/>
       <c r="B28" s="53"/>
-      <c r="C28" s="205"/>
-      <c r="D28" s="206"/>
+      <c r="C28" s="179"/>
+      <c r="D28" s="180"/>
       <c r="E28" s="54"/>
       <c r="F28" s="54"/>
       <c r="G28" s="54"/>
@@ -8140,8 +8140,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="52"/>
       <c r="B29" s="53"/>
-      <c r="C29" s="205"/>
-      <c r="D29" s="206"/>
+      <c r="C29" s="179"/>
+      <c r="D29" s="180"/>
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>
       <c r="G29" s="54"/>
@@ -8150,8 +8150,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="55"/>
       <c r="B30" s="56"/>
-      <c r="C30" s="182"/>
-      <c r="D30" s="184"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="191"/>
       <c r="E30" s="57"/>
       <c r="F30" s="57"/>
       <c r="G30" s="57"/>
@@ -8183,10 +8183,10 @@
       <c r="A33" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="187" t="s">
+      <c r="B33" s="192" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="189"/>
+      <c r="C33" s="193"/>
       <c r="D33" s="107" t="s">
         <v>94</v>
       </c>
@@ -8201,8 +8201,8 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="46"/>
-      <c r="B34" s="203"/>
-      <c r="C34" s="204"/>
+      <c r="B34" s="194"/>
+      <c r="C34" s="195"/>
       <c r="D34" s="196"/>
       <c r="E34" s="197"/>
       <c r="F34" s="198"/>
@@ -8213,9 +8213,9 @@
       <c r="A35" s="49"/>
       <c r="B35" s="199"/>
       <c r="C35" s="200"/>
-      <c r="D35" s="179"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="181"/>
+      <c r="D35" s="201"/>
+      <c r="E35" s="202"/>
+      <c r="F35" s="203"/>
       <c r="G35" s="51"/>
       <c r="H35" s="102"/>
     </row>
@@ -8223,9 +8223,9 @@
       <c r="A36" s="49"/>
       <c r="B36" s="199"/>
       <c r="C36" s="200"/>
-      <c r="D36" s="179"/>
-      <c r="E36" s="180"/>
-      <c r="F36" s="181"/>
+      <c r="D36" s="201"/>
+      <c r="E36" s="202"/>
+      <c r="F36" s="203"/>
       <c r="G36" s="51"/>
       <c r="H36" s="102"/>
     </row>
@@ -8233,19 +8233,19 @@
       <c r="A37" s="49"/>
       <c r="B37" s="199"/>
       <c r="C37" s="200"/>
-      <c r="D37" s="179"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="181"/>
+      <c r="D37" s="201"/>
+      <c r="E37" s="202"/>
+      <c r="F37" s="203"/>
       <c r="G37" s="51"/>
       <c r="H37" s="102"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
       <c r="A38" s="55"/>
-      <c r="B38" s="201"/>
-      <c r="C38" s="202"/>
-      <c r="D38" s="182"/>
-      <c r="E38" s="183"/>
-      <c r="F38" s="184"/>
+      <c r="B38" s="204"/>
+      <c r="C38" s="205"/>
+      <c r="D38" s="190"/>
+      <c r="E38" s="206"/>
+      <c r="F38" s="191"/>
       <c r="G38" s="57"/>
       <c r="H38" s="104"/>
     </row>
@@ -8278,15 +8278,15 @@
       <c r="B41" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="187" t="s">
+      <c r="C41" s="192" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="188"/>
-      <c r="E41" s="189"/>
-      <c r="F41" s="187" t="s">
+      <c r="D41" s="207"/>
+      <c r="E41" s="193"/>
+      <c r="F41" s="192" t="s">
         <v>98</v>
       </c>
-      <c r="G41" s="195"/>
+      <c r="G41" s="208"/>
       <c r="H41" s="111" t="s">
         <v>99</v>
       </c>
@@ -8304,41 +8304,41 @@
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="61"/>
       <c r="B43" s="62"/>
-      <c r="C43" s="179"/>
-      <c r="D43" s="180"/>
-      <c r="E43" s="181"/>
-      <c r="F43" s="179"/>
-      <c r="G43" s="181"/>
+      <c r="C43" s="201"/>
+      <c r="D43" s="202"/>
+      <c r="E43" s="203"/>
+      <c r="F43" s="201"/>
+      <c r="G43" s="203"/>
       <c r="H43" s="63"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="61"/>
       <c r="B44" s="62"/>
-      <c r="C44" s="179"/>
-      <c r="D44" s="180"/>
-      <c r="E44" s="181"/>
-      <c r="F44" s="179"/>
-      <c r="G44" s="181"/>
+      <c r="C44" s="201"/>
+      <c r="D44" s="202"/>
+      <c r="E44" s="203"/>
+      <c r="F44" s="201"/>
+      <c r="G44" s="203"/>
       <c r="H44" s="63"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="61"/>
       <c r="B45" s="62"/>
-      <c r="C45" s="179"/>
-      <c r="D45" s="180"/>
-      <c r="E45" s="181"/>
-      <c r="F45" s="179"/>
-      <c r="G45" s="181"/>
+      <c r="C45" s="201"/>
+      <c r="D45" s="202"/>
+      <c r="E45" s="203"/>
+      <c r="F45" s="201"/>
+      <c r="G45" s="203"/>
       <c r="H45" s="63"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
       <c r="A46" s="64"/>
       <c r="B46" s="65"/>
-      <c r="C46" s="182"/>
-      <c r="D46" s="183"/>
-      <c r="E46" s="184"/>
-      <c r="F46" s="185"/>
-      <c r="G46" s="186"/>
+      <c r="C46" s="190"/>
+      <c r="D46" s="206"/>
+      <c r="E46" s="191"/>
+      <c r="F46" s="209"/>
+      <c r="G46" s="210"/>
       <c r="H46" s="66"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -8370,15 +8370,15 @@
       <c r="B49" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="187" t="s">
+      <c r="C49" s="192" t="s">
         <v>94</v>
       </c>
-      <c r="D49" s="188"/>
-      <c r="E49" s="189"/>
-      <c r="F49" s="190" t="s">
+      <c r="D49" s="207"/>
+      <c r="E49" s="193"/>
+      <c r="F49" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="G49" s="191"/>
+      <c r="G49" s="211"/>
       <c r="H49" s="100" t="s">
         <v>102</v>
       </c>
@@ -8388,15 +8388,15 @@
         <v>1</v>
       </c>
       <c r="B50" s="92"/>
-      <c r="C50" s="223" t="s">
+      <c r="C50" s="221" t="s">
         <v>123</v>
       </c>
-      <c r="D50" s="224"/>
-      <c r="E50" s="225"/>
-      <c r="F50" s="192" t="s">
+      <c r="D50" s="222"/>
+      <c r="E50" s="223"/>
+      <c r="F50" s="212" t="s">
         <v>116</v>
       </c>
-      <c r="G50" s="194"/>
+      <c r="G50" s="214"/>
       <c r="H50" s="113" t="s">
         <v>123</v>
       </c>
@@ -8404,45 +8404,89 @@
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="61"/>
       <c r="B51" s="62"/>
-      <c r="C51" s="179"/>
-      <c r="D51" s="180"/>
-      <c r="E51" s="181"/>
-      <c r="F51" s="179"/>
-      <c r="G51" s="181"/>
+      <c r="C51" s="201"/>
+      <c r="D51" s="202"/>
+      <c r="E51" s="203"/>
+      <c r="F51" s="201"/>
+      <c r="G51" s="203"/>
       <c r="H51" s="63"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="61"/>
       <c r="B52" s="62"/>
-      <c r="C52" s="179"/>
-      <c r="D52" s="180"/>
-      <c r="E52" s="181"/>
-      <c r="F52" s="179"/>
-      <c r="G52" s="181"/>
+      <c r="C52" s="201"/>
+      <c r="D52" s="202"/>
+      <c r="E52" s="203"/>
+      <c r="F52" s="201"/>
+      <c r="G52" s="203"/>
       <c r="H52" s="63"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="61"/>
       <c r="B53" s="62"/>
-      <c r="C53" s="179"/>
-      <c r="D53" s="180"/>
-      <c r="E53" s="181"/>
-      <c r="F53" s="179"/>
-      <c r="G53" s="181"/>
+      <c r="C53" s="201"/>
+      <c r="D53" s="202"/>
+      <c r="E53" s="203"/>
+      <c r="F53" s="201"/>
+      <c r="G53" s="203"/>
       <c r="H53" s="63"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1">
       <c r="A54" s="64"/>
       <c r="B54" s="65"/>
-      <c r="C54" s="182"/>
-      <c r="D54" s="183"/>
-      <c r="E54" s="184"/>
-      <c r="F54" s="185"/>
-      <c r="G54" s="186"/>
+      <c r="C54" s="190"/>
+      <c r="D54" s="206"/>
+      <c r="E54" s="191"/>
+      <c r="F54" s="209"/>
+      <c r="G54" s="210"/>
       <c r="H54" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="F53:G53"/>
@@ -8459,50 +8503,6 @@
     <mergeCell ref="C46:E46"/>
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8570,10 +8570,10 @@
         <v>26</v>
       </c>
       <c r="B3" s="93"/>
-      <c r="C3" s="207" t="s">
+      <c r="C3" s="181" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="208"/>
+      <c r="D3" s="182"/>
       <c r="E3" s="40" t="s">
         <v>33</v>
       </c>
@@ -8620,42 +8620,42 @@
         <v>66</v>
       </c>
       <c r="B6" s="96"/>
-      <c r="C6" s="209" t="s">
+      <c r="C6" s="183" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="210"/>
-      <c r="E6" s="210"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="211"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="185"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="93" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="96"/>
-      <c r="C7" s="209" t="s">
+      <c r="C7" s="183" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="210"/>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="211"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="185"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="93" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="96"/>
-      <c r="C8" s="209" t="s">
+      <c r="C8" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="210"/>
-      <c r="E8" s="210"/>
-      <c r="F8" s="210"/>
-      <c r="G8" s="210"/>
-      <c r="H8" s="211"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="185"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="97" t="s">
@@ -8676,10 +8676,10 @@
       <c r="B10" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="190" t="s">
+      <c r="C10" s="186" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="212"/>
+      <c r="D10" s="187"/>
       <c r="E10" s="99" t="s">
         <v>73</v>
       </c>
@@ -8700,10 +8700,10 @@
       <c r="B11" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="213" t="s">
+      <c r="C11" s="188" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="214"/>
+      <c r="D11" s="189"/>
       <c r="E11" s="48" t="s">
         <v>112</v>
       </c>
@@ -8722,10 +8722,10 @@
       <c r="B12" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="205" t="s">
+      <c r="C12" s="179" t="s">
         <v>128</v>
       </c>
-      <c r="D12" s="206"/>
+      <c r="D12" s="180"/>
       <c r="E12" s="51" t="s">
         <v>129</v>
       </c>
@@ -8742,10 +8742,10 @@
       <c r="B13" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="205" t="s">
+      <c r="C13" s="179" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="206"/>
+      <c r="D13" s="180"/>
       <c r="E13" s="54" t="s">
         <v>131</v>
       </c>
@@ -8764,10 +8764,10 @@
       <c r="B14" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="C14" s="205" t="s">
+      <c r="C14" s="179" t="s">
         <v>134</v>
       </c>
-      <c r="D14" s="206"/>
+      <c r="D14" s="180"/>
       <c r="E14" s="51" t="s">
         <v>135</v>
       </c>
@@ -8784,10 +8784,10 @@
       <c r="B15" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="205" t="s">
+      <c r="C15" s="179" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="206"/>
+      <c r="D15" s="180"/>
       <c r="E15" s="54" t="s">
         <v>138</v>
       </c>
@@ -8804,10 +8804,10 @@
       <c r="B16" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="C16" s="205" t="s">
+      <c r="C16" s="179" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="206"/>
+      <c r="D16" s="180"/>
       <c r="E16" s="54" t="s">
         <v>90</v>
       </c>
@@ -8822,8 +8822,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="52"/>
       <c r="B17" s="53"/>
-      <c r="C17" s="205"/>
-      <c r="D17" s="206"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="180"/>
       <c r="E17" s="54"/>
       <c r="F17" s="54"/>
       <c r="G17" s="54"/>
@@ -8832,8 +8832,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="49"/>
       <c r="B18" s="50"/>
-      <c r="C18" s="205"/>
-      <c r="D18" s="206"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="180"/>
       <c r="E18" s="51"/>
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
@@ -8842,8 +8842,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="52"/>
       <c r="B19" s="53"/>
-      <c r="C19" s="205"/>
-      <c r="D19" s="206"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="180"/>
       <c r="E19" s="54"/>
       <c r="F19" s="54"/>
       <c r="G19" s="54"/>
@@ -8852,8 +8852,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="52"/>
       <c r="B20" s="53"/>
-      <c r="C20" s="205"/>
-      <c r="D20" s="206"/>
+      <c r="C20" s="179"/>
+      <c r="D20" s="180"/>
       <c r="E20" s="54"/>
       <c r="F20" s="54"/>
       <c r="G20" s="54"/>
@@ -8862,8 +8862,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="52"/>
       <c r="B21" s="53"/>
-      <c r="C21" s="205"/>
-      <c r="D21" s="206"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="180"/>
       <c r="E21" s="54"/>
       <c r="F21" s="54"/>
       <c r="G21" s="54"/>
@@ -8872,8 +8872,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="52"/>
       <c r="B22" s="53"/>
-      <c r="C22" s="205"/>
-      <c r="D22" s="206"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="180"/>
       <c r="E22" s="54"/>
       <c r="F22" s="54"/>
       <c r="G22" s="54"/>
@@ -8882,8 +8882,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="52"/>
       <c r="B23" s="53"/>
-      <c r="C23" s="205"/>
-      <c r="D23" s="206"/>
+      <c r="C23" s="179"/>
+      <c r="D23" s="180"/>
       <c r="E23" s="54"/>
       <c r="F23" s="54"/>
       <c r="G23" s="54"/>
@@ -8892,8 +8892,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="52"/>
       <c r="B24" s="53"/>
-      <c r="C24" s="205"/>
-      <c r="D24" s="206"/>
+      <c r="C24" s="179"/>
+      <c r="D24" s="180"/>
       <c r="E24" s="54"/>
       <c r="F24" s="54"/>
       <c r="G24" s="54"/>
@@ -8902,8 +8902,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="52"/>
       <c r="B25" s="53"/>
-      <c r="C25" s="205"/>
-      <c r="D25" s="206"/>
+      <c r="C25" s="179"/>
+      <c r="D25" s="180"/>
       <c r="E25" s="54"/>
       <c r="F25" s="54"/>
       <c r="G25" s="54"/>
@@ -8912,8 +8912,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="52"/>
       <c r="B26" s="53"/>
-      <c r="C26" s="205"/>
-      <c r="D26" s="206"/>
+      <c r="C26" s="179"/>
+      <c r="D26" s="180"/>
       <c r="E26" s="54"/>
       <c r="F26" s="54"/>
       <c r="G26" s="54"/>
@@ -8922,8 +8922,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="52"/>
       <c r="B27" s="53"/>
-      <c r="C27" s="205"/>
-      <c r="D27" s="206"/>
+      <c r="C27" s="179"/>
+      <c r="D27" s="180"/>
       <c r="E27" s="54"/>
       <c r="F27" s="54"/>
       <c r="G27" s="54"/>
@@ -8932,8 +8932,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="52"/>
       <c r="B28" s="53"/>
-      <c r="C28" s="205"/>
-      <c r="D28" s="206"/>
+      <c r="C28" s="179"/>
+      <c r="D28" s="180"/>
       <c r="E28" s="54"/>
       <c r="F28" s="54"/>
       <c r="G28" s="54"/>
@@ -8942,8 +8942,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="52"/>
       <c r="B29" s="53"/>
-      <c r="C29" s="205"/>
-      <c r="D29" s="206"/>
+      <c r="C29" s="179"/>
+      <c r="D29" s="180"/>
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>
       <c r="G29" s="54"/>
@@ -8952,8 +8952,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="55"/>
       <c r="B30" s="56"/>
-      <c r="C30" s="182"/>
-      <c r="D30" s="184"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="191"/>
       <c r="E30" s="57"/>
       <c r="F30" s="57"/>
       <c r="G30" s="57"/>
@@ -8985,10 +8985,10 @@
       <c r="A33" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="187" t="s">
+      <c r="B33" s="192" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="189"/>
+      <c r="C33" s="193"/>
       <c r="D33" s="107" t="s">
         <v>94</v>
       </c>
@@ -9003,8 +9003,8 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="46"/>
-      <c r="B34" s="203"/>
-      <c r="C34" s="204"/>
+      <c r="B34" s="194"/>
+      <c r="C34" s="195"/>
       <c r="D34" s="196"/>
       <c r="E34" s="197"/>
       <c r="F34" s="198"/>
@@ -9015,9 +9015,9 @@
       <c r="A35" s="49"/>
       <c r="B35" s="199"/>
       <c r="C35" s="200"/>
-      <c r="D35" s="179"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="181"/>
+      <c r="D35" s="201"/>
+      <c r="E35" s="202"/>
+      <c r="F35" s="203"/>
       <c r="G35" s="51"/>
       <c r="H35" s="102"/>
     </row>
@@ -9025,9 +9025,9 @@
       <c r="A36" s="49"/>
       <c r="B36" s="199"/>
       <c r="C36" s="200"/>
-      <c r="D36" s="179"/>
-      <c r="E36" s="180"/>
-      <c r="F36" s="181"/>
+      <c r="D36" s="201"/>
+      <c r="E36" s="202"/>
+      <c r="F36" s="203"/>
       <c r="G36" s="51"/>
       <c r="H36" s="102"/>
     </row>
@@ -9035,19 +9035,19 @@
       <c r="A37" s="49"/>
       <c r="B37" s="199"/>
       <c r="C37" s="200"/>
-      <c r="D37" s="179"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="181"/>
+      <c r="D37" s="201"/>
+      <c r="E37" s="202"/>
+      <c r="F37" s="203"/>
       <c r="G37" s="51"/>
       <c r="H37" s="102"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="55"/>
-      <c r="B38" s="201"/>
-      <c r="C38" s="202"/>
-      <c r="D38" s="182"/>
-      <c r="E38" s="183"/>
-      <c r="F38" s="184"/>
+      <c r="B38" s="204"/>
+      <c r="C38" s="205"/>
+      <c r="D38" s="190"/>
+      <c r="E38" s="206"/>
+      <c r="F38" s="191"/>
       <c r="G38" s="57"/>
       <c r="H38" s="104"/>
     </row>
@@ -9080,15 +9080,15 @@
       <c r="B41" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="187" t="s">
+      <c r="C41" s="192" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="188"/>
-      <c r="E41" s="189"/>
-      <c r="F41" s="187" t="s">
+      <c r="D41" s="207"/>
+      <c r="E41" s="193"/>
+      <c r="F41" s="192" t="s">
         <v>98</v>
       </c>
-      <c r="G41" s="195"/>
+      <c r="G41" s="208"/>
       <c r="H41" s="111" t="s">
         <v>99</v>
       </c>
@@ -9099,7 +9099,7 @@
       </c>
       <c r="B42" s="59"/>
       <c r="C42" s="215" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D42" s="197"/>
       <c r="E42" s="198"/>
@@ -9108,47 +9108,47 @@
       </c>
       <c r="G42" s="198"/>
       <c r="H42" s="125" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="61"/>
       <c r="B43" s="62"/>
-      <c r="C43" s="179"/>
-      <c r="D43" s="180"/>
-      <c r="E43" s="181"/>
-      <c r="F43" s="179"/>
-      <c r="G43" s="181"/>
+      <c r="C43" s="201"/>
+      <c r="D43" s="202"/>
+      <c r="E43" s="203"/>
+      <c r="F43" s="201"/>
+      <c r="G43" s="203"/>
       <c r="H43" s="63"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="61"/>
       <c r="B44" s="62"/>
-      <c r="C44" s="179"/>
-      <c r="D44" s="180"/>
-      <c r="E44" s="181"/>
-      <c r="F44" s="179"/>
-      <c r="G44" s="181"/>
+      <c r="C44" s="201"/>
+      <c r="D44" s="202"/>
+      <c r="E44" s="203"/>
+      <c r="F44" s="201"/>
+      <c r="G44" s="203"/>
       <c r="H44" s="63"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="61"/>
       <c r="B45" s="62"/>
-      <c r="C45" s="179"/>
-      <c r="D45" s="180"/>
-      <c r="E45" s="181"/>
-      <c r="F45" s="179"/>
-      <c r="G45" s="181"/>
+      <c r="C45" s="201"/>
+      <c r="D45" s="202"/>
+      <c r="E45" s="203"/>
+      <c r="F45" s="201"/>
+      <c r="G45" s="203"/>
       <c r="H45" s="63"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="64"/>
       <c r="B46" s="65"/>
-      <c r="C46" s="182"/>
-      <c r="D46" s="183"/>
-      <c r="E46" s="184"/>
-      <c r="F46" s="185"/>
-      <c r="G46" s="186"/>
+      <c r="C46" s="190"/>
+      <c r="D46" s="206"/>
+      <c r="E46" s="191"/>
+      <c r="F46" s="209"/>
+      <c r="G46" s="210"/>
       <c r="H46" s="66"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -9180,15 +9180,15 @@
       <c r="B49" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="187" t="s">
+      <c r="C49" s="192" t="s">
         <v>94</v>
       </c>
-      <c r="D49" s="188"/>
-      <c r="E49" s="189"/>
-      <c r="F49" s="190" t="s">
+      <c r="D49" s="207"/>
+      <c r="E49" s="193"/>
+      <c r="F49" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="G49" s="191"/>
+      <c r="G49" s="211"/>
       <c r="H49" s="100" t="s">
         <v>102</v>
       </c>
@@ -9196,15 +9196,15 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="112"/>
       <c r="B50" s="92"/>
-      <c r="C50" s="192" t="s">
+      <c r="C50" s="212" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="193"/>
-      <c r="E50" s="194"/>
-      <c r="F50" s="192" t="s">
+      <c r="D50" s="213"/>
+      <c r="E50" s="214"/>
+      <c r="F50" s="212" t="s">
         <v>103</v>
       </c>
-      <c r="G50" s="194"/>
+      <c r="G50" s="214"/>
       <c r="H50" s="113" t="s">
         <v>108</v>
       </c>
@@ -9212,73 +9212,64 @@
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="61"/>
       <c r="B51" s="62"/>
-      <c r="C51" s="179"/>
-      <c r="D51" s="180"/>
-      <c r="E51" s="181"/>
-      <c r="F51" s="179"/>
-      <c r="G51" s="181"/>
+      <c r="C51" s="201"/>
+      <c r="D51" s="202"/>
+      <c r="E51" s="203"/>
+      <c r="F51" s="201"/>
+      <c r="G51" s="203"/>
       <c r="H51" s="63"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="61"/>
       <c r="B52" s="62"/>
-      <c r="C52" s="179"/>
-      <c r="D52" s="180"/>
-      <c r="E52" s="181"/>
-      <c r="F52" s="179"/>
-      <c r="G52" s="181"/>
+      <c r="C52" s="201"/>
+      <c r="D52" s="202"/>
+      <c r="E52" s="203"/>
+      <c r="F52" s="201"/>
+      <c r="G52" s="203"/>
       <c r="H52" s="63"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="61"/>
       <c r="B53" s="62"/>
-      <c r="C53" s="179"/>
-      <c r="D53" s="180"/>
-      <c r="E53" s="181"/>
-      <c r="F53" s="179"/>
-      <c r="G53" s="181"/>
+      <c r="C53" s="201"/>
+      <c r="D53" s="202"/>
+      <c r="E53" s="203"/>
+      <c r="F53" s="201"/>
+      <c r="G53" s="203"/>
       <c r="H53" s="63"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="64"/>
       <c r="B54" s="65"/>
-      <c r="C54" s="182"/>
-      <c r="D54" s="183"/>
-      <c r="E54" s="184"/>
-      <c r="F54" s="185"/>
-      <c r="G54" s="186"/>
+      <c r="C54" s="190"/>
+      <c r="D54" s="206"/>
+      <c r="E54" s="191"/>
+      <c r="F54" s="209"/>
+      <c r="G54" s="210"/>
       <c r="H54" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -9292,767 +9283,6 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="74" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D1E85B-D8CC-49A5-A730-BC109671E6AC}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H54"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" customWidth="1"/>
-    <col min="4" max="6" width="13.453125" customWidth="1"/>
-    <col min="7" max="7" width="14.90625" customWidth="1"/>
-    <col min="8" max="8" width="21.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="14">
-      <c r="A1" s="79" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-    </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A2" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="116" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="95" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="124">
-        <v>45044</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A3" s="93" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="221" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="222"/>
-      <c r="E3" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="95" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="124">
-        <v>45100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A4" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="116" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="94"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="121" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A5" s="95"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="95"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A6" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="209" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="210"/>
-      <c r="E6" s="210"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="211"/>
-    </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A7" s="93" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="209" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="210"/>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="211"/>
-    </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A8" s="93" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="209" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="210"/>
-      <c r="E8" s="210"/>
-      <c r="F8" s="210"/>
-      <c r="G8" s="210"/>
-      <c r="H8" s="211"/>
-    </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A9" s="97" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-    </row>
-    <row r="10" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A10" s="98" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="99" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="190" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="212"/>
-      <c r="E10" s="99" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="100" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A11" s="46">
-        <v>1</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="219" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="220"/>
-      <c r="E11" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="F11" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="101" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A12" s="49">
-        <v>2</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="C12" s="205" t="s">
-        <v>193</v>
-      </c>
-      <c r="D12" s="206"/>
-      <c r="E12" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="F12" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="51"/>
-      <c r="H12" s="102" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A13" s="49">
-        <v>3</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="205" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="206"/>
-      <c r="E13" s="51" t="s">
-        <v>194</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="102"/>
-    </row>
-    <row r="14" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A14" s="52"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="205"/>
-      <c r="D14" s="206"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="103"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="205"/>
-      <c r="D15" s="206"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="103"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="205"/>
-      <c r="D16" s="206"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="103"/>
-    </row>
-    <row r="17" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A17" s="52"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="205"/>
-      <c r="D17" s="206"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="103"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A18" s="52"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="205"/>
-      <c r="D18" s="206"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="103"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A19" s="52"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="205"/>
-      <c r="D19" s="206"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="103"/>
-    </row>
-    <row r="20" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="205"/>
-      <c r="D20" s="206"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="103"/>
-    </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A21" s="52"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="205"/>
-      <c r="D21" s="206"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="103"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="205"/>
-      <c r="D22" s="206"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="103"/>
-    </row>
-    <row r="23" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A23" s="52"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="205"/>
-      <c r="D23" s="206"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="103"/>
-    </row>
-    <row r="24" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A24" s="52"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="205"/>
-      <c r="D24" s="206"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="103"/>
-    </row>
-    <row r="25" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A25" s="52"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="205"/>
-      <c r="D25" s="206"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="103"/>
-    </row>
-    <row r="26" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A26" s="52"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="205"/>
-      <c r="D26" s="206"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="103"/>
-    </row>
-    <row r="27" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A27" s="52"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="205"/>
-      <c r="D27" s="206"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="103"/>
-    </row>
-    <row r="28" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A28" s="52"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="205"/>
-      <c r="D28" s="206"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="103"/>
-    </row>
-    <row r="29" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A29" s="52"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="205"/>
-      <c r="D29" s="206"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="103"/>
-    </row>
-    <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A30" s="55"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="182"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="104"/>
-    </row>
-    <row r="31" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-    </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A32" s="97" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="97"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A33" s="106" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="187" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="189"/>
-      <c r="D33" s="107" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="109"/>
-      <c r="F33" s="108"/>
-      <c r="G33" s="110" t="s">
-        <v>95</v>
-      </c>
-      <c r="H33" s="111" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A34" s="46"/>
-      <c r="B34" s="203"/>
-      <c r="C34" s="204"/>
-      <c r="D34" s="196"/>
-      <c r="E34" s="197"/>
-      <c r="F34" s="198"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="101"/>
-    </row>
-    <row r="35" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A35" s="49"/>
-      <c r="B35" s="199"/>
-      <c r="C35" s="200"/>
-      <c r="D35" s="179"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="181"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="102"/>
-    </row>
-    <row r="36" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A36" s="49"/>
-      <c r="B36" s="199"/>
-      <c r="C36" s="200"/>
-      <c r="D36" s="179"/>
-      <c r="E36" s="180"/>
-      <c r="F36" s="181"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="102"/>
-    </row>
-    <row r="37" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A37" s="49"/>
-      <c r="B37" s="199"/>
-      <c r="C37" s="200"/>
-      <c r="D37" s="179"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="181"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="102"/>
-    </row>
-    <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A38" s="55"/>
-      <c r="B38" s="201"/>
-      <c r="C38" s="202"/>
-      <c r="D38" s="182"/>
-      <c r="E38" s="183"/>
-      <c r="F38" s="184"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="104"/>
-    </row>
-    <row r="39" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A39" s="42"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-    </row>
-    <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A40" s="97" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" s="97"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="105"/>
-    </row>
-    <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A41" s="106" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="110" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="187" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="188"/>
-      <c r="E41" s="189"/>
-      <c r="F41" s="187" t="s">
-        <v>98</v>
-      </c>
-      <c r="G41" s="195"/>
-      <c r="H41" s="111" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A42" s="58"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="196"/>
-      <c r="D42" s="197"/>
-      <c r="E42" s="198"/>
-      <c r="F42" s="196"/>
-      <c r="G42" s="198"/>
-      <c r="H42" s="60"/>
-    </row>
-    <row r="43" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A43" s="61"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="179"/>
-      <c r="D43" s="180"/>
-      <c r="E43" s="181"/>
-      <c r="F43" s="179"/>
-      <c r="G43" s="181"/>
-      <c r="H43" s="63"/>
-    </row>
-    <row r="44" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A44" s="61"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="179"/>
-      <c r="D44" s="180"/>
-      <c r="E44" s="181"/>
-      <c r="F44" s="179"/>
-      <c r="G44" s="181"/>
-      <c r="H44" s="63"/>
-    </row>
-    <row r="45" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A45" s="61"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="179"/>
-      <c r="D45" s="180"/>
-      <c r="E45" s="181"/>
-      <c r="F45" s="179"/>
-      <c r="G45" s="181"/>
-      <c r="H45" s="63"/>
-    </row>
-    <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A46" s="64"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="182"/>
-      <c r="D46" s="183"/>
-      <c r="E46" s="184"/>
-      <c r="F46" s="185"/>
-      <c r="G46" s="186"/>
-      <c r="H46" s="66"/>
-    </row>
-    <row r="47" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A47" s="42"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-    </row>
-    <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A48" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="B48" s="97"/>
-      <c r="C48" s="105"/>
-      <c r="D48" s="105"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="105"/>
-    </row>
-    <row r="49" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A49" s="98" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="110" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="187" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" s="188"/>
-      <c r="E49" s="189"/>
-      <c r="F49" s="190" t="s">
-        <v>101</v>
-      </c>
-      <c r="G49" s="191"/>
-      <c r="H49" s="100" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A50" s="112">
-        <v>1</v>
-      </c>
-      <c r="B50" s="92"/>
-      <c r="C50" s="223" t="s">
-        <v>196</v>
-      </c>
-      <c r="D50" s="224"/>
-      <c r="E50" s="225"/>
-      <c r="F50" s="192" t="s">
-        <v>116</v>
-      </c>
-      <c r="G50" s="194"/>
-      <c r="H50" s="113" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A51" s="61"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="179"/>
-      <c r="D51" s="180"/>
-      <c r="E51" s="181"/>
-      <c r="F51" s="179"/>
-      <c r="G51" s="181"/>
-      <c r="H51" s="63"/>
-    </row>
-    <row r="52" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A52" s="61"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="179"/>
-      <c r="D52" s="180"/>
-      <c r="E52" s="181"/>
-      <c r="F52" s="179"/>
-      <c r="G52" s="181"/>
-      <c r="H52" s="63"/>
-    </row>
-    <row r="53" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A53" s="61"/>
-      <c r="B53" s="62"/>
-      <c r="C53" s="179"/>
-      <c r="D53" s="180"/>
-      <c r="E53" s="181"/>
-      <c r="F53" s="179"/>
-      <c r="G53" s="181"/>
-      <c r="H53" s="63"/>
-    </row>
-    <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A54" s="64"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="182"/>
-      <c r="D54" s="183"/>
-      <c r="E54" s="184"/>
-      <c r="F54" s="185"/>
-      <c r="G54" s="186"/>
-      <c r="H54" s="66"/>
-    </row>
-  </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="B38:C38"/>
@@ -10071,16 +9301,786 @@
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="C49:E49"/>
     <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="F50:G50"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="F52:G52"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D1E85B-D8CC-49A5-A730-BC109671E6AC}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="3.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" customWidth="1"/>
+    <col min="4" max="6" width="13.453125" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" customWidth="1"/>
+    <col min="8" max="8" width="21.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14">
+      <c r="A1" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="93"/>
+      <c r="C2" s="116" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="95"/>
+      <c r="E2" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="95" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="124">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="219" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="220"/>
+      <c r="E3" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="95" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="124">
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="93"/>
+      <c r="C4" s="116" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="94"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="121" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A5" s="95"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="95"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="96"/>
+      <c r="C6" s="183" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="185"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="96"/>
+      <c r="C7" s="183" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="185"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A8" s="93" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="96"/>
+      <c r="C8" s="183" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="185"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A9" s="97" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A10" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="99" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="186" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="187"/>
+      <c r="E10" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="100" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A11" s="46">
+        <v>1</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="224" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="225"/>
+      <c r="E11" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="48"/>
+      <c r="H11" s="101" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A12" s="49">
+        <v>2</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="179" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="180"/>
+      <c r="E12" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="51"/>
+      <c r="H12" s="102" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A13" s="49">
+        <v>3</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="179" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="180"/>
+      <c r="E13" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="51"/>
+      <c r="H13" s="102"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="179"/>
+      <c r="D14" s="180"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="103"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="180"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="103"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A16" s="52"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="179"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="103"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A17" s="52"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="180"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="103"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="180"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="103"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="180"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="103"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="179"/>
+      <c r="D20" s="180"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="103"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="103"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="180"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="103"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="179"/>
+      <c r="D23" s="180"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="103"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A24" s="52"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="179"/>
+      <c r="D24" s="180"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="103"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A25" s="52"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="179"/>
+      <c r="D25" s="180"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="103"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A26" s="52"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="179"/>
+      <c r="D26" s="180"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="103"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="179"/>
+      <c r="D27" s="180"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="103"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A28" s="52"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="179"/>
+      <c r="D28" s="180"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="103"/>
+    </row>
+    <row r="29" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A29" s="52"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="179"/>
+      <c r="D29" s="180"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="103"/>
+    </row>
+    <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A30" s="55"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="191"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="104"/>
+    </row>
+    <row r="31" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+    </row>
+    <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A32" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="97"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A33" s="106" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="192" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="193"/>
+      <c r="D33" s="107" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="109"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="110" t="s">
+        <v>95</v>
+      </c>
+      <c r="H33" s="111" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A34" s="46"/>
+      <c r="B34" s="194"/>
+      <c r="C34" s="195"/>
+      <c r="D34" s="196"/>
+      <c r="E34" s="197"/>
+      <c r="F34" s="198"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="101"/>
+    </row>
+    <row r="35" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A35" s="49"/>
+      <c r="B35" s="199"/>
+      <c r="C35" s="200"/>
+      <c r="D35" s="201"/>
+      <c r="E35" s="202"/>
+      <c r="F35" s="203"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="102"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A36" s="49"/>
+      <c r="B36" s="199"/>
+      <c r="C36" s="200"/>
+      <c r="D36" s="201"/>
+      <c r="E36" s="202"/>
+      <c r="F36" s="203"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="102"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A37" s="49"/>
+      <c r="B37" s="199"/>
+      <c r="C37" s="200"/>
+      <c r="D37" s="201"/>
+      <c r="E37" s="202"/>
+      <c r="F37" s="203"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="102"/>
+    </row>
+    <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A38" s="55"/>
+      <c r="B38" s="204"/>
+      <c r="C38" s="205"/>
+      <c r="D38" s="190"/>
+      <c r="E38" s="206"/>
+      <c r="F38" s="191"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="104"/>
+    </row>
+    <row r="39" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+    </row>
+    <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A40" s="97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="97"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
+    </row>
+    <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A41" s="106" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="192" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="207"/>
+      <c r="E41" s="193"/>
+      <c r="F41" s="192" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="208"/>
+      <c r="H41" s="111" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A42" s="58"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="196"/>
+      <c r="D42" s="197"/>
+      <c r="E42" s="198"/>
+      <c r="F42" s="196"/>
+      <c r="G42" s="198"/>
+      <c r="H42" s="60"/>
+    </row>
+    <row r="43" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A43" s="61"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="201"/>
+      <c r="D43" s="202"/>
+      <c r="E43" s="203"/>
+      <c r="F43" s="201"/>
+      <c r="G43" s="203"/>
+      <c r="H43" s="63"/>
+    </row>
+    <row r="44" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A44" s="61"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="201"/>
+      <c r="D44" s="202"/>
+      <c r="E44" s="203"/>
+      <c r="F44" s="201"/>
+      <c r="G44" s="203"/>
+      <c r="H44" s="63"/>
+    </row>
+    <row r="45" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A45" s="61"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="201"/>
+      <c r="D45" s="202"/>
+      <c r="E45" s="203"/>
+      <c r="F45" s="201"/>
+      <c r="G45" s="203"/>
+      <c r="H45" s="63"/>
+    </row>
+    <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A46" s="64"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="190"/>
+      <c r="D46" s="206"/>
+      <c r="E46" s="191"/>
+      <c r="F46" s="209"/>
+      <c r="G46" s="210"/>
+      <c r="H46" s="66"/>
+    </row>
+    <row r="47" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A48" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="97"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="105"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="105"/>
+    </row>
+    <row r="49" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A49" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="192" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="207"/>
+      <c r="E49" s="193"/>
+      <c r="F49" s="186" t="s">
+        <v>101</v>
+      </c>
+      <c r="G49" s="211"/>
+      <c r="H49" s="100" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A50" s="112">
+        <v>1</v>
+      </c>
+      <c r="B50" s="92"/>
+      <c r="C50" s="221" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" s="222"/>
+      <c r="E50" s="223"/>
+      <c r="F50" s="212" t="s">
+        <v>116</v>
+      </c>
+      <c r="G50" s="214"/>
+      <c r="H50" s="113" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A51" s="61"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="201"/>
+      <c r="D51" s="202"/>
+      <c r="E51" s="203"/>
+      <c r="F51" s="201"/>
+      <c r="G51" s="203"/>
+      <c r="H51" s="63"/>
+    </row>
+    <row r="52" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A52" s="61"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="201"/>
+      <c r="D52" s="202"/>
+      <c r="E52" s="203"/>
+      <c r="F52" s="201"/>
+      <c r="G52" s="203"/>
+      <c r="H52" s="63"/>
+    </row>
+    <row r="53" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A53" s="61"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="201"/>
+      <c r="D53" s="202"/>
+      <c r="E53" s="203"/>
+      <c r="F53" s="201"/>
+      <c r="G53" s="203"/>
+      <c r="H53" s="63"/>
+    </row>
+    <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A54" s="64"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="190"/>
+      <c r="D54" s="206"/>
+      <c r="E54" s="191"/>
+      <c r="F54" s="209"/>
+      <c r="G54" s="210"/>
+      <c r="H54" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="60">
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="C54:E54"/>
     <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10148,10 +10148,10 @@
         <v>26</v>
       </c>
       <c r="B3" s="93"/>
-      <c r="C3" s="221" t="s">
+      <c r="C3" s="219" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="222"/>
+      <c r="D3" s="220"/>
       <c r="E3" s="40" t="s">
         <v>33</v>
       </c>
@@ -10198,42 +10198,42 @@
         <v>66</v>
       </c>
       <c r="B6" s="96"/>
-      <c r="C6" s="209" t="s">
+      <c r="C6" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="210"/>
-      <c r="E6" s="210"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="211"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="185"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="93" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="96"/>
-      <c r="C7" s="209" t="s">
+      <c r="C7" s="183" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="210"/>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="211"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="185"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="93" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="96"/>
-      <c r="C8" s="209" t="s">
+      <c r="C8" s="183" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="210"/>
-      <c r="E8" s="210"/>
-      <c r="F8" s="210"/>
-      <c r="G8" s="210"/>
-      <c r="H8" s="211"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="185"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="97" t="s">
@@ -10254,10 +10254,10 @@
       <c r="B10" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="190" t="s">
+      <c r="C10" s="186" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="212"/>
+      <c r="D10" s="187"/>
       <c r="E10" s="99" t="s">
         <v>73</v>
       </c>
@@ -10278,10 +10278,10 @@
       <c r="B11" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="219" t="s">
+      <c r="C11" s="224" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="220"/>
+      <c r="D11" s="225"/>
       <c r="E11" s="48" t="s">
         <v>112</v>
       </c>
@@ -10300,10 +10300,10 @@
       <c r="B12" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="205" t="s">
+      <c r="C12" s="179" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="206"/>
+      <c r="D12" s="180"/>
       <c r="E12" s="51" t="s">
         <v>112</v>
       </c>
@@ -10322,10 +10322,10 @@
       <c r="B13" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="205" t="s">
+      <c r="C13" s="179" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="206"/>
+      <c r="D13" s="180"/>
       <c r="E13" s="51" t="s">
         <v>112</v>
       </c>
@@ -10344,10 +10344,10 @@
       <c r="B14" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="205" t="s">
+      <c r="C14" s="179" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="206"/>
+      <c r="D14" s="180"/>
       <c r="E14" s="54" t="s">
         <v>151</v>
       </c>
@@ -10364,10 +10364,10 @@
       <c r="B15" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="205" t="s">
+      <c r="C15" s="179" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="206"/>
+      <c r="D15" s="180"/>
       <c r="E15" s="54" t="s">
         <v>114</v>
       </c>
@@ -10380,8 +10380,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="52"/>
       <c r="B16" s="53"/>
-      <c r="C16" s="205"/>
-      <c r="D16" s="206"/>
+      <c r="C16" s="179"/>
+      <c r="D16" s="180"/>
       <c r="E16" s="54"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -10390,8 +10390,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="52"/>
       <c r="B17" s="53"/>
-      <c r="C17" s="205"/>
-      <c r="D17" s="206"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="180"/>
       <c r="E17" s="54"/>
       <c r="F17" s="54"/>
       <c r="G17" s="54"/>
@@ -10400,8 +10400,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="52"/>
       <c r="B18" s="53"/>
-      <c r="C18" s="205"/>
-      <c r="D18" s="206"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="180"/>
       <c r="E18" s="54"/>
       <c r="F18" s="54"/>
       <c r="G18" s="54"/>
@@ -10410,8 +10410,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="52"/>
       <c r="B19" s="53"/>
-      <c r="C19" s="205"/>
-      <c r="D19" s="206"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="180"/>
       <c r="E19" s="54"/>
       <c r="F19" s="54"/>
       <c r="G19" s="54"/>
@@ -10420,8 +10420,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="52"/>
       <c r="B20" s="53"/>
-      <c r="C20" s="205"/>
-      <c r="D20" s="206"/>
+      <c r="C20" s="179"/>
+      <c r="D20" s="180"/>
       <c r="E20" s="54"/>
       <c r="F20" s="54"/>
       <c r="G20" s="54"/>
@@ -10430,8 +10430,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="52"/>
       <c r="B21" s="53"/>
-      <c r="C21" s="205"/>
-      <c r="D21" s="206"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="180"/>
       <c r="E21" s="54"/>
       <c r="F21" s="54"/>
       <c r="G21" s="54"/>
@@ -10440,8 +10440,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="52"/>
       <c r="B22" s="53"/>
-      <c r="C22" s="205"/>
-      <c r="D22" s="206"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="180"/>
       <c r="E22" s="54"/>
       <c r="F22" s="54"/>
       <c r="G22" s="54"/>
@@ -10450,8 +10450,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="52"/>
       <c r="B23" s="53"/>
-      <c r="C23" s="205"/>
-      <c r="D23" s="206"/>
+      <c r="C23" s="179"/>
+      <c r="D23" s="180"/>
       <c r="E23" s="54"/>
       <c r="F23" s="54"/>
       <c r="G23" s="54"/>
@@ -10460,8 +10460,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="52"/>
       <c r="B24" s="53"/>
-      <c r="C24" s="205"/>
-      <c r="D24" s="206"/>
+      <c r="C24" s="179"/>
+      <c r="D24" s="180"/>
       <c r="E24" s="54"/>
       <c r="F24" s="54"/>
       <c r="G24" s="54"/>
@@ -10470,8 +10470,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="52"/>
       <c r="B25" s="53"/>
-      <c r="C25" s="205"/>
-      <c r="D25" s="206"/>
+      <c r="C25" s="179"/>
+      <c r="D25" s="180"/>
       <c r="E25" s="54"/>
       <c r="F25" s="54"/>
       <c r="G25" s="54"/>
@@ -10480,8 +10480,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="52"/>
       <c r="B26" s="53"/>
-      <c r="C26" s="205"/>
-      <c r="D26" s="206"/>
+      <c r="C26" s="179"/>
+      <c r="D26" s="180"/>
       <c r="E26" s="54"/>
       <c r="F26" s="54"/>
       <c r="G26" s="54"/>
@@ -10490,8 +10490,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="52"/>
       <c r="B27" s="53"/>
-      <c r="C27" s="205"/>
-      <c r="D27" s="206"/>
+      <c r="C27" s="179"/>
+      <c r="D27" s="180"/>
       <c r="E27" s="54"/>
       <c r="F27" s="54"/>
       <c r="G27" s="54"/>
@@ -10500,8 +10500,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="52"/>
       <c r="B28" s="53"/>
-      <c r="C28" s="205"/>
-      <c r="D28" s="206"/>
+      <c r="C28" s="179"/>
+      <c r="D28" s="180"/>
       <c r="E28" s="54"/>
       <c r="F28" s="54"/>
       <c r="G28" s="54"/>
@@ -10510,8 +10510,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="52"/>
       <c r="B29" s="53"/>
-      <c r="C29" s="205"/>
-      <c r="D29" s="206"/>
+      <c r="C29" s="179"/>
+      <c r="D29" s="180"/>
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>
       <c r="G29" s="54"/>
@@ -10520,8 +10520,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="55"/>
       <c r="B30" s="56"/>
-      <c r="C30" s="182"/>
-      <c r="D30" s="184"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="191"/>
       <c r="E30" s="57"/>
       <c r="F30" s="57"/>
       <c r="G30" s="57"/>
@@ -10553,10 +10553,10 @@
       <c r="A33" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="187" t="s">
+      <c r="B33" s="192" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="189"/>
+      <c r="C33" s="193"/>
       <c r="D33" s="107" t="s">
         <v>94</v>
       </c>
@@ -10571,8 +10571,8 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="46"/>
-      <c r="B34" s="203"/>
-      <c r="C34" s="204"/>
+      <c r="B34" s="194"/>
+      <c r="C34" s="195"/>
       <c r="D34" s="196"/>
       <c r="E34" s="197"/>
       <c r="F34" s="198"/>
@@ -10583,9 +10583,9 @@
       <c r="A35" s="49"/>
       <c r="B35" s="199"/>
       <c r="C35" s="200"/>
-      <c r="D35" s="179"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="181"/>
+      <c r="D35" s="201"/>
+      <c r="E35" s="202"/>
+      <c r="F35" s="203"/>
       <c r="G35" s="51"/>
       <c r="H35" s="102"/>
     </row>
@@ -10593,9 +10593,9 @@
       <c r="A36" s="49"/>
       <c r="B36" s="199"/>
       <c r="C36" s="200"/>
-      <c r="D36" s="179"/>
-      <c r="E36" s="180"/>
-      <c r="F36" s="181"/>
+      <c r="D36" s="201"/>
+      <c r="E36" s="202"/>
+      <c r="F36" s="203"/>
       <c r="G36" s="51"/>
       <c r="H36" s="102"/>
     </row>
@@ -10603,19 +10603,19 @@
       <c r="A37" s="49"/>
       <c r="B37" s="199"/>
       <c r="C37" s="200"/>
-      <c r="D37" s="179"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="181"/>
+      <c r="D37" s="201"/>
+      <c r="E37" s="202"/>
+      <c r="F37" s="203"/>
       <c r="G37" s="51"/>
       <c r="H37" s="102"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="55"/>
-      <c r="B38" s="201"/>
-      <c r="C38" s="202"/>
-      <c r="D38" s="182"/>
-      <c r="E38" s="183"/>
-      <c r="F38" s="184"/>
+      <c r="B38" s="204"/>
+      <c r="C38" s="205"/>
+      <c r="D38" s="190"/>
+      <c r="E38" s="206"/>
+      <c r="F38" s="191"/>
       <c r="G38" s="57"/>
       <c r="H38" s="104"/>
     </row>
@@ -10648,15 +10648,15 @@
       <c r="B41" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="187" t="s">
+      <c r="C41" s="192" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="188"/>
-      <c r="E41" s="189"/>
-      <c r="F41" s="187" t="s">
+      <c r="D41" s="207"/>
+      <c r="E41" s="193"/>
+      <c r="F41" s="192" t="s">
         <v>98</v>
       </c>
-      <c r="G41" s="195"/>
+      <c r="G41" s="208"/>
       <c r="H41" s="111" t="s">
         <v>99</v>
       </c>
@@ -10674,41 +10674,41 @@
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="61"/>
       <c r="B43" s="62"/>
-      <c r="C43" s="179"/>
-      <c r="D43" s="180"/>
-      <c r="E43" s="181"/>
-      <c r="F43" s="179"/>
-      <c r="G43" s="181"/>
+      <c r="C43" s="201"/>
+      <c r="D43" s="202"/>
+      <c r="E43" s="203"/>
+      <c r="F43" s="201"/>
+      <c r="G43" s="203"/>
       <c r="H43" s="63"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="61"/>
       <c r="B44" s="62"/>
-      <c r="C44" s="179"/>
-      <c r="D44" s="180"/>
-      <c r="E44" s="181"/>
-      <c r="F44" s="179"/>
-      <c r="G44" s="181"/>
+      <c r="C44" s="201"/>
+      <c r="D44" s="202"/>
+      <c r="E44" s="203"/>
+      <c r="F44" s="201"/>
+      <c r="G44" s="203"/>
       <c r="H44" s="63"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="61"/>
       <c r="B45" s="62"/>
-      <c r="C45" s="179"/>
-      <c r="D45" s="180"/>
-      <c r="E45" s="181"/>
-      <c r="F45" s="179"/>
-      <c r="G45" s="181"/>
+      <c r="C45" s="201"/>
+      <c r="D45" s="202"/>
+      <c r="E45" s="203"/>
+      <c r="F45" s="201"/>
+      <c r="G45" s="203"/>
       <c r="H45" s="63"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="64"/>
       <c r="B46" s="65"/>
-      <c r="C46" s="182"/>
-      <c r="D46" s="183"/>
-      <c r="E46" s="184"/>
-      <c r="F46" s="185"/>
-      <c r="G46" s="186"/>
+      <c r="C46" s="190"/>
+      <c r="D46" s="206"/>
+      <c r="E46" s="191"/>
+      <c r="F46" s="209"/>
+      <c r="G46" s="210"/>
       <c r="H46" s="66"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -10740,15 +10740,15 @@
       <c r="B49" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="187" t="s">
+      <c r="C49" s="192" t="s">
         <v>94</v>
       </c>
-      <c r="D49" s="188"/>
-      <c r="E49" s="189"/>
-      <c r="F49" s="190" t="s">
+      <c r="D49" s="207"/>
+      <c r="E49" s="193"/>
+      <c r="F49" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="G49" s="191"/>
+      <c r="G49" s="211"/>
       <c r="H49" s="100" t="s">
         <v>102</v>
       </c>
@@ -10758,15 +10758,15 @@
         <v>1</v>
       </c>
       <c r="B50" s="92"/>
-      <c r="C50" s="223" t="s">
+      <c r="C50" s="221" t="s">
         <v>123</v>
       </c>
-      <c r="D50" s="224"/>
-      <c r="E50" s="225"/>
-      <c r="F50" s="192" t="s">
+      <c r="D50" s="222"/>
+      <c r="E50" s="223"/>
+      <c r="F50" s="212" t="s">
         <v>116</v>
       </c>
-      <c r="G50" s="194"/>
+      <c r="G50" s="214"/>
       <c r="H50" s="113" t="s">
         <v>123</v>
       </c>
@@ -10774,45 +10774,93 @@
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="61"/>
       <c r="B51" s="62"/>
-      <c r="C51" s="179"/>
-      <c r="D51" s="180"/>
-      <c r="E51" s="181"/>
-      <c r="F51" s="179"/>
-      <c r="G51" s="181"/>
+      <c r="C51" s="201"/>
+      <c r="D51" s="202"/>
+      <c r="E51" s="203"/>
+      <c r="F51" s="201"/>
+      <c r="G51" s="203"/>
       <c r="H51" s="63"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="61"/>
       <c r="B52" s="62"/>
-      <c r="C52" s="179"/>
-      <c r="D52" s="180"/>
-      <c r="E52" s="181"/>
-      <c r="F52" s="179"/>
-      <c r="G52" s="181"/>
+      <c r="C52" s="201"/>
+      <c r="D52" s="202"/>
+      <c r="E52" s="203"/>
+      <c r="F52" s="201"/>
+      <c r="G52" s="203"/>
       <c r="H52" s="63"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="61"/>
       <c r="B53" s="62"/>
-      <c r="C53" s="179"/>
-      <c r="D53" s="180"/>
-      <c r="E53" s="181"/>
-      <c r="F53" s="179"/>
-      <c r="G53" s="181"/>
+      <c r="C53" s="201"/>
+      <c r="D53" s="202"/>
+      <c r="E53" s="203"/>
+      <c r="F53" s="201"/>
+      <c r="G53" s="203"/>
       <c r="H53" s="63"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="64"/>
       <c r="B54" s="65"/>
-      <c r="C54" s="182"/>
-      <c r="D54" s="183"/>
-      <c r="E54" s="184"/>
-      <c r="F54" s="185"/>
-      <c r="G54" s="186"/>
+      <c r="C54" s="190"/>
+      <c r="D54" s="206"/>
+      <c r="E54" s="191"/>
+      <c r="F54" s="209"/>
+      <c r="G54" s="210"/>
       <c r="H54" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C6:H6"/>
@@ -10825,54 +10873,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10919,41 +10919,41 @@
       <c r="A2" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="238" t="s">
+      <c r="B2" s="226" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="239"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="239"/>
-      <c r="F2" s="239"/>
-      <c r="G2" s="240"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="228"/>
       <c r="H2" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="245" t="s">
+      <c r="I2" s="233" t="s">
         <v>181</v>
       </c>
-      <c r="J2" s="246"/>
+      <c r="J2" s="234"/>
       <c r="K2" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="247" t="s">
+      <c r="L2" s="238" t="s">
         <v>182</v>
       </c>
-      <c r="M2" s="248"/>
+      <c r="M2" s="239"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1">
       <c r="A3" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="207" t="s">
+      <c r="B3" s="181" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="241"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="241"/>
-      <c r="F3" s="241"/>
-      <c r="G3" s="208"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="182"/>
       <c r="H3" s="119" t="s">
         <v>33</v>
       </c>
@@ -10962,31 +10962,31 @@
       <c r="K3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="249"/>
-      <c r="M3" s="250"/>
+      <c r="L3" s="240"/>
+      <c r="M3" s="241"/>
     </row>
     <row r="4" spans="1:13" ht="17.25" customHeight="1">
       <c r="A4" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="242" t="s">
+      <c r="B4" s="230" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="243"/>
-      <c r="D4" s="243"/>
-      <c r="E4" s="243"/>
-      <c r="F4" s="243"/>
-      <c r="G4" s="243"/>
-      <c r="H4" s="243"/>
-      <c r="I4" s="243"/>
-      <c r="J4" s="244"/>
+      <c r="C4" s="231"/>
+      <c r="D4" s="231"/>
+      <c r="E4" s="231"/>
+      <c r="F4" s="231"/>
+      <c r="G4" s="231"/>
+      <c r="H4" s="231"/>
+      <c r="I4" s="231"/>
+      <c r="J4" s="232"/>
       <c r="K4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="251" t="s">
+      <c r="L4" s="242" t="s">
         <v>158</v>
       </c>
-      <c r="M4" s="248"/>
+      <c r="M4" s="239"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1">
       <c r="A5" s="88"/>
@@ -11006,39 +11006,39 @@
       <c r="A6" s="90" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="232" t="s">
+      <c r="B6" s="235" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="233"/>
-      <c r="D6" s="233"/>
-      <c r="E6" s="233"/>
-      <c r="F6" s="233"/>
-      <c r="G6" s="233"/>
-      <c r="H6" s="233"/>
-      <c r="I6" s="233"/>
-      <c r="J6" s="233"/>
-      <c r="K6" s="233"/>
-      <c r="L6" s="233"/>
-      <c r="M6" s="234"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="236"/>
+      <c r="G6" s="236"/>
+      <c r="H6" s="236"/>
+      <c r="I6" s="236"/>
+      <c r="J6" s="236"/>
+      <c r="K6" s="236"/>
+      <c r="L6" s="236"/>
+      <c r="M6" s="237"/>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1">
       <c r="A7" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="232" t="s">
+      <c r="B7" s="235" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="233"/>
-      <c r="D7" s="233"/>
-      <c r="E7" s="233"/>
-      <c r="F7" s="233"/>
-      <c r="G7" s="233"/>
-      <c r="H7" s="233"/>
-      <c r="I7" s="233"/>
-      <c r="J7" s="233"/>
-      <c r="K7" s="233"/>
-      <c r="L7" s="233"/>
-      <c r="M7" s="234"/>
+      <c r="C7" s="236"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="236"/>
+      <c r="G7" s="236"/>
+      <c r="H7" s="236"/>
+      <c r="I7" s="236"/>
+      <c r="J7" s="236"/>
+      <c r="K7" s="236"/>
+      <c r="L7" s="236"/>
+      <c r="M7" s="237"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="67"/>
@@ -11047,14 +11047,14 @@
     <row r="9" spans="1:13" ht="21.75" customHeight="1">
       <c r="A9" s="67"/>
       <c r="F9" s="68"/>
-      <c r="G9" s="229" t="s">
+      <c r="G9" s="243" t="s">
         <v>154</v>
       </c>
-      <c r="H9" s="230"/>
-      <c r="I9" s="230"/>
-      <c r="J9" s="230"/>
-      <c r="K9" s="230"/>
-      <c r="L9" s="231"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="244"/>
+      <c r="J9" s="244"/>
+      <c r="K9" s="244"/>
+      <c r="L9" s="245"/>
       <c r="M9" s="68"/>
     </row>
     <row r="10" spans="1:13" ht="21.75" customHeight="1">
@@ -11086,15 +11086,15 @@
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1">
       <c r="A11" s="67"/>
-      <c r="B11" s="235" t="s">
+      <c r="B11" s="249" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="226" t="s">
+      <c r="C11" s="246" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="227"/>
-      <c r="E11" s="227"/>
-      <c r="F11" s="228"/>
+      <c r="D11" s="247"/>
+      <c r="E11" s="247"/>
+      <c r="F11" s="248"/>
       <c r="G11" s="72" t="s">
         <v>157</v>
       </c>
@@ -11107,13 +11107,13 @@
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1">
       <c r="A12" s="67"/>
-      <c r="B12" s="236"/>
-      <c r="C12" s="226" t="s">
+      <c r="B12" s="250"/>
+      <c r="C12" s="246" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="227"/>
-      <c r="E12" s="227"/>
-      <c r="F12" s="228"/>
+      <c r="D12" s="247"/>
+      <c r="E12" s="247"/>
+      <c r="F12" s="248"/>
       <c r="G12" s="72" t="s">
         <v>175</v>
       </c>
@@ -11126,13 +11126,13 @@
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
       <c r="A13" s="67"/>
-      <c r="B13" s="236"/>
-      <c r="C13" s="226" t="s">
+      <c r="B13" s="250"/>
+      <c r="C13" s="246" t="s">
         <v>168</v>
       </c>
-      <c r="D13" s="227"/>
-      <c r="E13" s="227"/>
-      <c r="F13" s="228"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="248"/>
       <c r="G13" s="72" t="s">
         <v>177</v>
       </c>
@@ -11151,13 +11151,13 @@
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
       <c r="A14" s="67"/>
-      <c r="B14" s="236"/>
-      <c r="C14" s="226" t="s">
+      <c r="B14" s="250"/>
+      <c r="C14" s="246" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="227"/>
-      <c r="E14" s="227"/>
-      <c r="F14" s="228"/>
+      <c r="D14" s="247"/>
+      <c r="E14" s="247"/>
+      <c r="F14" s="248"/>
       <c r="G14" s="72"/>
       <c r="H14" s="72" t="s">
         <v>177</v>
@@ -11172,13 +11172,13 @@
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
       <c r="A15" s="67"/>
-      <c r="B15" s="236"/>
-      <c r="C15" s="226" t="s">
+      <c r="B15" s="250"/>
+      <c r="C15" s="246" t="s">
         <v>170</v>
       </c>
-      <c r="D15" s="227"/>
-      <c r="E15" s="227"/>
-      <c r="F15" s="228"/>
+      <c r="D15" s="247"/>
+      <c r="E15" s="247"/>
+      <c r="F15" s="248"/>
       <c r="G15" s="72" t="s">
         <v>177</v>
       </c>
@@ -11197,13 +11197,13 @@
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1">
       <c r="A16" s="67"/>
-      <c r="B16" s="236"/>
-      <c r="C16" s="226" t="s">
+      <c r="B16" s="250"/>
+      <c r="C16" s="246" t="s">
         <v>171</v>
       </c>
-      <c r="D16" s="227"/>
-      <c r="E16" s="227"/>
-      <c r="F16" s="228"/>
+      <c r="D16" s="247"/>
+      <c r="E16" s="247"/>
+      <c r="F16" s="248"/>
       <c r="G16" s="72" t="s">
         <v>178</v>
       </c>
@@ -11216,13 +11216,13 @@
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="67"/>
-      <c r="B17" s="236"/>
-      <c r="C17" s="226" t="s">
+      <c r="B17" s="250"/>
+      <c r="C17" s="246" t="s">
         <v>172</v>
       </c>
-      <c r="D17" s="227"/>
-      <c r="E17" s="227"/>
-      <c r="F17" s="228"/>
+      <c r="D17" s="247"/>
+      <c r="E17" s="247"/>
+      <c r="F17" s="248"/>
       <c r="G17" s="72"/>
       <c r="H17" s="72" t="s">
         <v>177</v>
@@ -11239,13 +11239,13 @@
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1">
       <c r="A18" s="67"/>
-      <c r="B18" s="236"/>
-      <c r="C18" s="226" t="s">
+      <c r="B18" s="250"/>
+      <c r="C18" s="246" t="s">
         <v>173</v>
       </c>
-      <c r="D18" s="227"/>
-      <c r="E18" s="227"/>
-      <c r="F18" s="228"/>
+      <c r="D18" s="247"/>
+      <c r="E18" s="247"/>
+      <c r="F18" s="248"/>
       <c r="G18" s="72"/>
       <c r="H18" s="72"/>
       <c r="I18" s="72" t="s">
@@ -11262,13 +11262,13 @@
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1">
       <c r="A19" s="67"/>
-      <c r="B19" s="236"/>
-      <c r="C19" s="226" t="s">
+      <c r="B19" s="250"/>
+      <c r="C19" s="246" t="s">
         <v>174</v>
       </c>
-      <c r="D19" s="227"/>
-      <c r="E19" s="227"/>
-      <c r="F19" s="228"/>
+      <c r="D19" s="247"/>
+      <c r="E19" s="247"/>
+      <c r="F19" s="248"/>
       <c r="G19" s="72"/>
       <c r="H19" s="72"/>
       <c r="I19" s="72"/>
@@ -11283,11 +11283,11 @@
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
       <c r="A20" s="67"/>
-      <c r="B20" s="236"/>
-      <c r="C20" s="226"/>
-      <c r="D20" s="227"/>
-      <c r="E20" s="227"/>
-      <c r="F20" s="228"/>
+      <c r="B20" s="250"/>
+      <c r="C20" s="246"/>
+      <c r="D20" s="247"/>
+      <c r="E20" s="247"/>
+      <c r="F20" s="248"/>
       <c r="G20" s="72"/>
       <c r="H20" s="72"/>
       <c r="I20" s="72"/>
@@ -11298,11 +11298,11 @@
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
       <c r="A21" s="67"/>
-      <c r="B21" s="236"/>
-      <c r="C21" s="226"/>
-      <c r="D21" s="227"/>
-      <c r="E21" s="227"/>
-      <c r="F21" s="228"/>
+      <c r="B21" s="250"/>
+      <c r="C21" s="246"/>
+      <c r="D21" s="247"/>
+      <c r="E21" s="247"/>
+      <c r="F21" s="248"/>
       <c r="G21" s="72"/>
       <c r="H21" s="72"/>
       <c r="I21" s="72"/>
@@ -11313,11 +11313,11 @@
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
       <c r="A22" s="67"/>
-      <c r="B22" s="236"/>
-      <c r="C22" s="226"/>
-      <c r="D22" s="227"/>
-      <c r="E22" s="227"/>
-      <c r="F22" s="228"/>
+      <c r="B22" s="250"/>
+      <c r="C22" s="246"/>
+      <c r="D22" s="247"/>
+      <c r="E22" s="247"/>
+      <c r="F22" s="248"/>
       <c r="G22" s="72"/>
       <c r="H22" s="72"/>
       <c r="I22" s="72"/>
@@ -11328,11 +11328,11 @@
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
       <c r="A23" s="67"/>
-      <c r="B23" s="236"/>
-      <c r="C23" s="226"/>
-      <c r="D23" s="227"/>
-      <c r="E23" s="227"/>
-      <c r="F23" s="228"/>
+      <c r="B23" s="250"/>
+      <c r="C23" s="246"/>
+      <c r="D23" s="247"/>
+      <c r="E23" s="247"/>
+      <c r="F23" s="248"/>
       <c r="G23" s="72"/>
       <c r="H23" s="72"/>
       <c r="I23" s="72"/>
@@ -11343,11 +11343,11 @@
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
       <c r="A24" s="67"/>
-      <c r="B24" s="236"/>
-      <c r="C24" s="226"/>
-      <c r="D24" s="227"/>
-      <c r="E24" s="227"/>
-      <c r="F24" s="228"/>
+      <c r="B24" s="250"/>
+      <c r="C24" s="246"/>
+      <c r="D24" s="247"/>
+      <c r="E24" s="247"/>
+      <c r="F24" s="248"/>
       <c r="G24" s="72"/>
       <c r="H24" s="72"/>
       <c r="I24" s="72"/>
@@ -11358,11 +11358,11 @@
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1">
       <c r="A25" s="67"/>
-      <c r="B25" s="236"/>
-      <c r="C25" s="226"/>
-      <c r="D25" s="227"/>
-      <c r="E25" s="227"/>
-      <c r="F25" s="228"/>
+      <c r="B25" s="250"/>
+      <c r="C25" s="246"/>
+      <c r="D25" s="247"/>
+      <c r="E25" s="247"/>
+      <c r="F25" s="248"/>
       <c r="G25" s="72"/>
       <c r="H25" s="72"/>
       <c r="I25" s="72"/>
@@ -11373,11 +11373,11 @@
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1">
       <c r="A26" s="67"/>
-      <c r="B26" s="236"/>
-      <c r="C26" s="226"/>
-      <c r="D26" s="227"/>
-      <c r="E26" s="227"/>
-      <c r="F26" s="228"/>
+      <c r="B26" s="250"/>
+      <c r="C26" s="246"/>
+      <c r="D26" s="247"/>
+      <c r="E26" s="247"/>
+      <c r="F26" s="248"/>
       <c r="G26" s="72"/>
       <c r="H26" s="72"/>
       <c r="I26" s="72"/>
@@ -11388,11 +11388,11 @@
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
       <c r="A27" s="67"/>
-      <c r="B27" s="236"/>
-      <c r="C27" s="226"/>
-      <c r="D27" s="227"/>
-      <c r="E27" s="227"/>
-      <c r="F27" s="228"/>
+      <c r="B27" s="250"/>
+      <c r="C27" s="246"/>
+      <c r="D27" s="247"/>
+      <c r="E27" s="247"/>
+      <c r="F27" s="248"/>
       <c r="G27" s="72"/>
       <c r="H27" s="72"/>
       <c r="I27" s="72"/>
@@ -11403,11 +11403,11 @@
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
       <c r="A28" s="67"/>
-      <c r="B28" s="236"/>
-      <c r="C28" s="226"/>
-      <c r="D28" s="227"/>
-      <c r="E28" s="227"/>
-      <c r="F28" s="228"/>
+      <c r="B28" s="250"/>
+      <c r="C28" s="246"/>
+      <c r="D28" s="247"/>
+      <c r="E28" s="247"/>
+      <c r="F28" s="248"/>
       <c r="G28" s="72"/>
       <c r="H28" s="72"/>
       <c r="I28" s="72"/>
@@ -11418,11 +11418,11 @@
     </row>
     <row r="29" spans="1:13" ht="22.5" customHeight="1">
       <c r="A29" s="67"/>
-      <c r="B29" s="236"/>
-      <c r="C29" s="226"/>
-      <c r="D29" s="227"/>
-      <c r="E29" s="227"/>
-      <c r="F29" s="228"/>
+      <c r="B29" s="250"/>
+      <c r="C29" s="246"/>
+      <c r="D29" s="247"/>
+      <c r="E29" s="247"/>
+      <c r="F29" s="248"/>
       <c r="G29" s="72"/>
       <c r="H29" s="72"/>
       <c r="I29" s="72"/>
@@ -11433,11 +11433,11 @@
     </row>
     <row r="30" spans="1:13" ht="22.5" customHeight="1">
       <c r="A30" s="67"/>
-      <c r="B30" s="236"/>
-      <c r="C30" s="226"/>
-      <c r="D30" s="227"/>
-      <c r="E30" s="227"/>
-      <c r="F30" s="228"/>
+      <c r="B30" s="250"/>
+      <c r="C30" s="246"/>
+      <c r="D30" s="247"/>
+      <c r="E30" s="247"/>
+      <c r="F30" s="248"/>
       <c r="G30" s="72"/>
       <c r="H30" s="72"/>
       <c r="I30" s="72"/>
@@ -11448,11 +11448,11 @@
     </row>
     <row r="31" spans="1:13" ht="22.5" customHeight="1">
       <c r="A31" s="67"/>
-      <c r="B31" s="236"/>
-      <c r="C31" s="226"/>
-      <c r="D31" s="227"/>
-      <c r="E31" s="227"/>
-      <c r="F31" s="228"/>
+      <c r="B31" s="250"/>
+      <c r="C31" s="246"/>
+      <c r="D31" s="247"/>
+      <c r="E31" s="247"/>
+      <c r="F31" s="248"/>
       <c r="G31" s="72"/>
       <c r="H31" s="72"/>
       <c r="I31" s="72"/>
@@ -11463,11 +11463,11 @@
     </row>
     <row r="32" spans="1:13" ht="23.25" customHeight="1">
       <c r="A32" s="67"/>
-      <c r="B32" s="236"/>
-      <c r="C32" s="226"/>
-      <c r="D32" s="227"/>
-      <c r="E32" s="227"/>
-      <c r="F32" s="228"/>
+      <c r="B32" s="250"/>
+      <c r="C32" s="246"/>
+      <c r="D32" s="247"/>
+      <c r="E32" s="247"/>
+      <c r="F32" s="248"/>
       <c r="G32" s="72"/>
       <c r="H32" s="72"/>
       <c r="I32" s="72"/>
@@ -11478,11 +11478,11 @@
     </row>
     <row r="33" spans="1:13" ht="23.25" customHeight="1">
       <c r="A33" s="67"/>
-      <c r="B33" s="236"/>
-      <c r="C33" s="226"/>
-      <c r="D33" s="227"/>
-      <c r="E33" s="227"/>
-      <c r="F33" s="228"/>
+      <c r="B33" s="250"/>
+      <c r="C33" s="246"/>
+      <c r="D33" s="247"/>
+      <c r="E33" s="247"/>
+      <c r="F33" s="248"/>
       <c r="G33" s="72"/>
       <c r="H33" s="72"/>
       <c r="I33" s="72"/>
@@ -11493,11 +11493,11 @@
     </row>
     <row r="34" spans="1:13" ht="23.25" customHeight="1">
       <c r="A34" s="67"/>
-      <c r="B34" s="237"/>
-      <c r="C34" s="226"/>
-      <c r="D34" s="227"/>
-      <c r="E34" s="227"/>
-      <c r="F34" s="228"/>
+      <c r="B34" s="251"/>
+      <c r="C34" s="246"/>
+      <c r="D34" s="247"/>
+      <c r="E34" s="247"/>
+      <c r="F34" s="248"/>
       <c r="G34" s="72"/>
       <c r="H34" s="72"/>
       <c r="I34" s="72"/>
@@ -11527,14 +11527,17 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
     <mergeCell ref="G9:L9"/>
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="C22:F22"/>
@@ -11551,17 +11554,14 @@
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11570,6 +11570,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101002AE1D350C1D187429FCE72AB621E5824" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="08ea4f5c38265adeb4ec9f060fde962c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="53510aa8-34ca-4e0c-ba7d-fd55616164c7" xmlns:ns3="5693f406-aeca-4321-a656-3a9a02e36084" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="551f8f54d6bb5f9917afb8308cea520a" ns2:_="" ns3:_="">
     <xsd:import namespace="53510aa8-34ca-4e0c-ba7d-fd55616164c7"/>
@@ -11734,22 +11749,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72DCFA76-BA47-46F7-87FB-B7214F0E338A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FD7918C-4008-4E53-BD69-06094197BAA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEECDF9A-2022-472D-B831-5847D1DAC37A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11766,21 +11783,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FD7918C-4008-4E53-BD69-06094197BAA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72DCFA76-BA47-46F7-87FB-B7214F0E338A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>